--- a/data_quarter/zb/建筑业/建筑业总产值.xlsx
+++ b/data_quarter/zb/建筑业/建筑业总产值.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,11 +469,46 @@
           <t>装饰装修产值_累计值</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>其他产值</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>在外省完成的产值</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>安装工程产值</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业总产值</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业竣工产值</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>建筑工程产值</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>装饰装修产值</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2003年第二季度</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -493,11 +528,28 @@
         <v>6769.34</v>
       </c>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>274.86</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>874.91</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7919.11</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3274.75</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6769.34</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年第四季度</t>
+          <t>2003年D</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -517,11 +569,28 @@
         <v>18574.06</v>
       </c>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>597.52</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1544.14</v>
+      </c>
+      <c r="L3" t="n">
+        <v>13946.38</v>
+      </c>
+      <c r="M3" t="n">
+        <v>11713.26</v>
+      </c>
+      <c r="N3" t="n">
+        <v>11804.72</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年第一季度</t>
+          <t>2004年A</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -545,67 +614,130 @@
       <c r="H4" t="n">
         <v>213.31</v>
       </c>
+      <c r="I4" t="n">
+        <v>171.54</v>
+      </c>
+      <c r="J4" t="n">
+        <v>815.1900000000001</v>
+      </c>
+      <c r="K4" t="n">
+        <v>406.22</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3882.01</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1628.89</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3304.25</v>
+      </c>
+      <c r="O4" t="n">
+        <v>213.31</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年第三季度</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>688.42</v>
+        <v>410.27</v>
       </c>
       <c r="C5" t="n">
-        <v>3771.2</v>
+        <v>2240.42</v>
       </c>
       <c r="D5" t="n">
-        <v>1736.97</v>
+        <v>1082.47</v>
       </c>
       <c r="E5" t="n">
-        <v>16487.01</v>
+        <v>10096.65</v>
       </c>
       <c r="F5" t="n">
-        <v>8040.04</v>
+        <v>4200.2</v>
       </c>
       <c r="G5" t="n">
-        <v>14061.62</v>
+        <v>8603.91</v>
       </c>
       <c r="H5" t="n">
-        <v>908.95</v>
+        <v>539.92</v>
+      </c>
+      <c r="I5" t="n">
+        <v>238.73</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1425.23</v>
+      </c>
+      <c r="K5" t="n">
+        <v>676.25</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6214.639999999999</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2571.309999999999</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5299.66</v>
+      </c>
+      <c r="O5" t="n">
+        <v>326.61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年第二季度</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>410.27</v>
+        <v>688.42</v>
       </c>
       <c r="C6" t="n">
-        <v>2240.42</v>
+        <v>3771.2</v>
       </c>
       <c r="D6" t="n">
-        <v>1082.47</v>
+        <v>1736.97</v>
       </c>
       <c r="E6" t="n">
-        <v>10096.65</v>
+        <v>16487.01</v>
       </c>
       <c r="F6" t="n">
-        <v>4200.2</v>
+        <v>8040.04</v>
       </c>
       <c r="G6" t="n">
-        <v>8603.91</v>
+        <v>14061.62</v>
       </c>
       <c r="H6" t="n">
-        <v>539.92</v>
+        <v>908.95</v>
+      </c>
+      <c r="I6" t="n">
+        <v>278.15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1530.78</v>
+      </c>
+      <c r="K6" t="n">
+        <v>654.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6390.359999999999</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3839.84</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5457.710000000001</v>
+      </c>
+      <c r="O6" t="n">
+        <v>369.0300000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2004年第四季度</t>
+          <t>2004年D</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -629,11 +761,32 @@
       <c r="H7" t="n">
         <v>1647.73</v>
       </c>
+      <c r="I7" t="n">
+        <v>695.5700000000001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2597.77</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1331.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11258.37</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10598.18</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9231.299999999997</v>
+      </c>
+      <c r="O7" t="n">
+        <v>738.78</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -657,67 +810,130 @@
       <c r="H8" t="n">
         <v>233.52</v>
       </c>
+      <c r="I8" t="n">
+        <v>179.54</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1073.27</v>
+      </c>
+      <c r="K8" t="n">
+        <v>518.08</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4514.14</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1805.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3816.51</v>
+      </c>
+      <c r="O8" t="n">
+        <v>233.52</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>716.6</v>
+        <v>436.88</v>
       </c>
       <c r="C9" t="n">
-        <v>5085.89</v>
+        <v>3004.59</v>
       </c>
       <c r="D9" t="n">
-        <v>2200.33</v>
+        <v>1308.27</v>
       </c>
       <c r="E9" t="n">
-        <v>20056.88</v>
+        <v>12056.56</v>
       </c>
       <c r="F9" t="n">
-        <v>9499.48</v>
+        <v>5087.82</v>
       </c>
       <c r="G9" t="n">
-        <v>17139.95</v>
+        <v>10311.41</v>
       </c>
       <c r="H9" t="n">
-        <v>998.5700000000001</v>
+        <v>587.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>257.34</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1931.32</v>
+      </c>
+      <c r="K9" t="n">
+        <v>790.1899999999999</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7542.419999999999</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3282.76</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6494.9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>354.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>436.88</v>
+        <v>716.6</v>
       </c>
       <c r="C10" t="n">
-        <v>3004.59</v>
+        <v>5085.89</v>
       </c>
       <c r="D10" t="n">
-        <v>1308.27</v>
+        <v>2200.33</v>
       </c>
       <c r="E10" t="n">
-        <v>12056.56</v>
+        <v>20056.88</v>
       </c>
       <c r="F10" t="n">
-        <v>5087.82</v>
+        <v>9499.48</v>
       </c>
       <c r="G10" t="n">
-        <v>10311.41</v>
+        <v>17139.95</v>
       </c>
       <c r="H10" t="n">
-        <v>587.6</v>
+        <v>998.5700000000001</v>
+      </c>
+      <c r="I10" t="n">
+        <v>279.72</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2081.3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>892.0599999999999</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8000.320000000002</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4411.66</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6828.540000000001</v>
+      </c>
+      <c r="O10" t="n">
+        <v>410.97</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2005年第四季度</t>
+          <t>2005年D</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -741,11 +957,32 @@
       <c r="H11" t="n">
         <v>1912.96</v>
       </c>
+      <c r="I11" t="n">
+        <v>648.66</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3290.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1720.53</v>
+      </c>
+      <c r="L11" t="n">
+        <v>14688.91</v>
+      </c>
+      <c r="M11" t="n">
+        <v>12573.48</v>
+      </c>
+      <c r="N11" t="n">
+        <v>12319.71</v>
+      </c>
+      <c r="O11" t="n">
+        <v>914.39</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -769,67 +1006,130 @@
       <c r="H12" t="n">
         <v>309.58</v>
       </c>
+      <c r="I12" t="n">
+        <v>219.67</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1314.9</v>
+      </c>
+      <c r="K12" t="n">
+        <v>602.14</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5520.79</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2262.59</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4698.99</v>
+      </c>
+      <c r="O12" t="n">
+        <v>309.58</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>846.6</v>
+        <v>533.04</v>
       </c>
       <c r="C13" t="n">
-        <v>6357.78</v>
+        <v>3683.01</v>
       </c>
       <c r="D13" t="n">
-        <v>2564.09</v>
+        <v>1581.29</v>
       </c>
       <c r="E13" t="n">
-        <v>24914.55</v>
+        <v>14931.11</v>
       </c>
       <c r="F13" t="n">
-        <v>11585.45</v>
+        <v>6298.71</v>
       </c>
       <c r="G13" t="n">
-        <v>21503.85</v>
+        <v>12816.78</v>
       </c>
       <c r="H13" t="n">
-        <v>1283.94</v>
+        <v>760.59</v>
+      </c>
+      <c r="I13" t="n">
+        <v>313.37</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2368.11</v>
+      </c>
+      <c r="K13" t="n">
+        <v>979.15</v>
+      </c>
+      <c r="L13" t="n">
+        <v>9410.32</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4036.12</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8117.790000000001</v>
+      </c>
+      <c r="O13" t="n">
+        <v>451.01</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>533.04</v>
+        <v>846.6</v>
       </c>
       <c r="C14" t="n">
-        <v>3683.01</v>
+        <v>6357.78</v>
       </c>
       <c r="D14" t="n">
-        <v>1581.29</v>
+        <v>2564.09</v>
       </c>
       <c r="E14" t="n">
-        <v>14931.11</v>
+        <v>24914.55</v>
       </c>
       <c r="F14" t="n">
-        <v>6298.71</v>
+        <v>11585.45</v>
       </c>
       <c r="G14" t="n">
-        <v>12816.78</v>
+        <v>21503.85</v>
       </c>
       <c r="H14" t="n">
-        <v>760.59</v>
+        <v>1283.94</v>
+      </c>
+      <c r="I14" t="n">
+        <v>313.5600000000001</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2674.77</v>
+      </c>
+      <c r="K14" t="n">
+        <v>982.8000000000002</v>
+      </c>
+      <c r="L14" t="n">
+        <v>9983.439999999999</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5286.740000000001</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8687.069999999998</v>
+      </c>
+      <c r="O14" t="n">
+        <v>523.35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2006年第四季度</t>
+          <t>2006年D</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -853,11 +1153,32 @@
       <c r="H15" t="n">
         <v>2392.49</v>
       </c>
+      <c r="I15" t="n">
+        <v>571.89</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3888.910000000001</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1757.32</v>
+      </c>
+      <c r="L15" t="n">
+        <v>16060.91</v>
+      </c>
+      <c r="M15" t="n">
+        <v>14465.78</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13731.72</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1108.55</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -881,67 +1202,130 @@
       <c r="H16" t="n">
         <v>403.91268</v>
       </c>
+      <c r="I16" t="n">
+        <v>206.72</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1768.47166</v>
+      </c>
+      <c r="K16" t="n">
+        <v>707.3117099999999</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6708.80063</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2954.52557</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5794.76599</v>
+      </c>
+      <c r="O16" t="n">
+        <v>403.91268</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>876.36</v>
+        <v>509.9</v>
       </c>
       <c r="C17" t="n">
-        <v>8221.666450000001</v>
+        <v>4901.48</v>
       </c>
       <c r="D17" t="n">
-        <v>2926.46819</v>
+        <v>1791.72</v>
       </c>
       <c r="E17" t="n">
-        <v>30582.23861</v>
+        <v>18212.85</v>
       </c>
       <c r="F17" t="n">
-        <v>14724.18595</v>
+        <v>7945.61</v>
       </c>
       <c r="G17" t="n">
-        <v>26779.40781</v>
+        <v>15911.23</v>
       </c>
       <c r="H17" t="n">
-        <v>1703.47679</v>
+        <v>984.91</v>
+      </c>
+      <c r="I17" t="n">
+        <v>303.1799999999999</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3133.008339999999</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1084.40829</v>
+      </c>
+      <c r="L17" t="n">
+        <v>11504.04937</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4991.08443</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10116.46401</v>
+      </c>
+      <c r="O17" t="n">
+        <v>580.9973199999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>509.9</v>
+        <v>876.36</v>
       </c>
       <c r="C18" t="n">
-        <v>4901.48</v>
+        <v>8221.666450000001</v>
       </c>
       <c r="D18" t="n">
-        <v>1791.72</v>
+        <v>2926.46819</v>
       </c>
       <c r="E18" t="n">
-        <v>18212.85</v>
+        <v>30582.23861</v>
       </c>
       <c r="F18" t="n">
-        <v>7945.61</v>
+        <v>14724.18595</v>
       </c>
       <c r="G18" t="n">
-        <v>15911.23</v>
+        <v>26779.40781</v>
       </c>
       <c r="H18" t="n">
-        <v>984.91</v>
+        <v>1703.47679</v>
+      </c>
+      <c r="I18" t="n">
+        <v>366.46</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3320.186450000001</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1134.74819</v>
+      </c>
+      <c r="L18" t="n">
+        <v>12369.38861</v>
+      </c>
+      <c r="M18" t="n">
+        <v>6778.575949999999</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10868.17781</v>
+      </c>
+      <c r="O18" t="n">
+        <v>718.56679</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2007年第四季度</t>
+          <t>2007年D</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -965,11 +1349,32 @@
       <c r="H19" t="n">
         <v>2921.87675</v>
       </c>
+      <c r="I19" t="n">
+        <v>604.3000000000001</v>
+      </c>
+      <c r="J19" t="n">
+        <v>5002.57121</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2010.44549</v>
+      </c>
+      <c r="L19" t="n">
+        <v>19436.38496</v>
+      </c>
+      <c r="M19" t="n">
+        <v>16120.6995</v>
+      </c>
+      <c r="N19" t="n">
+        <v>16821.63812</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1218.39996</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -993,67 +1398,130 @@
       <c r="H20" t="n">
         <v>500.87</v>
       </c>
+      <c r="I20" t="n">
+        <v>244.67</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2289.86</v>
+      </c>
+      <c r="K20" t="n">
+        <v>831.16</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8347.030000000001</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3718.21</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7271.2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>500.87</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>997.9400000000001</v>
+        <v>589.08</v>
       </c>
       <c r="C21" t="n">
-        <v>10535.12</v>
+        <v>6378.68</v>
       </c>
       <c r="D21" t="n">
-        <v>3543.55</v>
+        <v>2132.44</v>
       </c>
       <c r="E21" t="n">
-        <v>37552.37</v>
+        <v>22664.53</v>
       </c>
       <c r="F21" t="n">
-        <v>17308.1</v>
+        <v>9928.85</v>
       </c>
       <c r="G21" t="n">
-        <v>33010.87</v>
+        <v>19943.01</v>
       </c>
       <c r="H21" t="n">
-        <v>1981.11</v>
+        <v>1273.7</v>
+      </c>
+      <c r="I21" t="n">
+        <v>344.4100000000001</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4088.82</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1301.28</v>
+      </c>
+      <c r="L21" t="n">
+        <v>14317.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>6210.64</v>
+      </c>
+      <c r="N21" t="n">
+        <v>12671.81</v>
+      </c>
+      <c r="O21" t="n">
+        <v>772.83</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>589.08</v>
+        <v>997.9400000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>6378.68</v>
+        <v>10535.12</v>
       </c>
       <c r="D22" t="n">
-        <v>2132.44</v>
+        <v>3543.55</v>
       </c>
       <c r="E22" t="n">
-        <v>22664.53</v>
+        <v>37552.37</v>
       </c>
       <c r="F22" t="n">
-        <v>9928.85</v>
+        <v>17308.1</v>
       </c>
       <c r="G22" t="n">
-        <v>19943.01</v>
+        <v>33010.87</v>
       </c>
       <c r="H22" t="n">
-        <v>1273.7</v>
+        <v>1981.11</v>
+      </c>
+      <c r="I22" t="n">
+        <v>408.86</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4156.440000000001</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1411.11</v>
+      </c>
+      <c r="L22" t="n">
+        <v>14887.84</v>
+      </c>
+      <c r="M22" t="n">
+        <v>7379.249999999998</v>
+      </c>
+      <c r="N22" t="n">
+        <v>13067.86</v>
+      </c>
+      <c r="O22" t="n">
+        <v>707.4099999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2008年第四季度</t>
+          <t>2008年D</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1077,11 +1545,32 @@
       <c r="H23" t="n">
         <v>3345.97</v>
       </c>
+      <c r="I23" t="n">
+        <v>737.1599999999999</v>
+      </c>
+      <c r="J23" t="n">
+        <v>6371.479999999998</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2448.389999999999</v>
+      </c>
+      <c r="L23" t="n">
+        <v>23591.89</v>
+      </c>
+      <c r="M23" t="n">
+        <v>18608.96</v>
+      </c>
+      <c r="N23" t="n">
+        <v>20406.35</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1364.86</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1105,67 +1594,130 @@
       <c r="H24" t="n">
         <v>539.74</v>
       </c>
+      <c r="I24" t="n">
+        <v>304.01</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2976.3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>996.54</v>
+      </c>
+      <c r="L24" t="n">
+        <v>10116.62</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4446.81</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8816.08</v>
+      </c>
+      <c r="O24" t="n">
+        <v>539.74</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1343.3</v>
+        <v>786.2</v>
       </c>
       <c r="C25" t="n">
-        <v>13759.82</v>
+        <v>8191.67</v>
       </c>
       <c r="D25" t="n">
-        <v>4253.2</v>
+        <v>2527.8</v>
       </c>
       <c r="E25" t="n">
-        <v>46518.27</v>
+        <v>27502.2</v>
       </c>
       <c r="F25" t="n">
-        <v>21181.56</v>
+        <v>11879.88</v>
       </c>
       <c r="G25" t="n">
-        <v>40921.8</v>
+        <v>24188.1</v>
       </c>
       <c r="H25" t="n">
-        <v>2401.21</v>
+        <v>1367.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>482.1900000000001</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5215.37</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1531.26</v>
+      </c>
+      <c r="L25" t="n">
+        <v>17385.58</v>
+      </c>
+      <c r="M25" t="n">
+        <v>7433.069999999999</v>
+      </c>
+      <c r="N25" t="n">
+        <v>15372.02</v>
+      </c>
+      <c r="O25" t="n">
+        <v>827.76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>786.2</v>
+        <v>1343.3</v>
       </c>
       <c r="C26" t="n">
-        <v>8191.67</v>
+        <v>13759.82</v>
       </c>
       <c r="D26" t="n">
-        <v>2527.8</v>
+        <v>4253.2</v>
       </c>
       <c r="E26" t="n">
-        <v>27502.2</v>
+        <v>46518.27</v>
       </c>
       <c r="F26" t="n">
-        <v>11879.88</v>
+        <v>21181.56</v>
       </c>
       <c r="G26" t="n">
-        <v>24188.1</v>
+        <v>40921.8</v>
       </c>
       <c r="H26" t="n">
-        <v>1367.5</v>
+        <v>2401.21</v>
+      </c>
+      <c r="I26" t="n">
+        <v>557.0999999999999</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5568.15</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1725.4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>19016.07</v>
+      </c>
+      <c r="M26" t="n">
+        <v>9301.680000000002</v>
+      </c>
+      <c r="N26" t="n">
+        <v>16733.7</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1033.71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1189,11 +1741,32 @@
       <c r="H27" t="n">
         <v>4142.25</v>
       </c>
+      <c r="I27" t="n">
+        <v>860.7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8710.119999999999</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2768.5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>29345.51</v>
+      </c>
+      <c r="M27" t="n">
+        <v>22616.1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>25716.3</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1741.04</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1217,67 +1790,130 @@
       <c r="H28" t="n">
         <v>707.8099999999999</v>
       </c>
+      <c r="I28" t="n">
+        <v>376.6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3874.83</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1148.4</v>
+      </c>
+      <c r="L28" t="n">
+        <v>12706.9</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5623.2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>11182</v>
+      </c>
+      <c r="O28" t="n">
+        <v>707.8099999999999</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1632.12</v>
+        <v>974.7</v>
       </c>
       <c r="C29" t="n">
-        <v>18025.93</v>
+        <v>10640.89</v>
       </c>
       <c r="D29" t="n">
-        <v>4935.1</v>
+        <v>2976.8</v>
       </c>
       <c r="E29" t="n">
-        <v>57626.54</v>
+        <v>34193.4</v>
       </c>
       <c r="F29" t="n">
-        <v>25732.97</v>
+        <v>14733.7</v>
       </c>
       <c r="G29" t="n">
-        <v>51059.32</v>
+        <v>30241.9</v>
       </c>
       <c r="H29" t="n">
-        <v>3026.09</v>
+        <v>1827.44</v>
+      </c>
+      <c r="I29" t="n">
+        <v>598.1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>6766.059999999999</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1828.4</v>
+      </c>
+      <c r="L29" t="n">
+        <v>21486.5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>9110.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>19059.9</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1119.63</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>974.7</v>
+        <v>1632.12</v>
       </c>
       <c r="C30" t="n">
-        <v>10640.89</v>
+        <v>18025.93</v>
       </c>
       <c r="D30" t="n">
-        <v>2976.8</v>
+        <v>4935.1</v>
       </c>
       <c r="E30" t="n">
-        <v>34193.4</v>
+        <v>57626.54</v>
       </c>
       <c r="F30" t="n">
-        <v>14733.7</v>
+        <v>25732.97</v>
       </c>
       <c r="G30" t="n">
-        <v>30241.9</v>
+        <v>51059.32</v>
       </c>
       <c r="H30" t="n">
-        <v>1827.44</v>
+        <v>3026.09</v>
+      </c>
+      <c r="I30" t="n">
+        <v>657.4199999999998</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7385.040000000001</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1958.3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>23433.14</v>
+      </c>
+      <c r="M30" t="n">
+        <v>10999.27</v>
+      </c>
+      <c r="N30" t="n">
+        <v>20817.42</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1198.65</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1301,11 +1937,32 @@
       <c r="H31" t="n">
         <v>5156.97</v>
       </c>
+      <c r="I31" t="n">
+        <v>1066.36</v>
+      </c>
+      <c r="J31" t="n">
+        <v>11199.3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3331.609999999999</v>
+      </c>
+      <c r="L31" t="n">
+        <v>37579.28000000001</v>
+      </c>
+      <c r="M31" t="n">
+        <v>27247.95</v>
+      </c>
+      <c r="N31" t="n">
+        <v>33181.31</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2130.88</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1329,67 +1986,130 @@
       <c r="H32" t="n">
         <v>887.98</v>
       </c>
+      <c r="I32" t="n">
+        <v>471.18</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5005.81</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1405.24</v>
+      </c>
+      <c r="L32" t="n">
+        <v>16096.38</v>
+      </c>
+      <c r="M32" t="n">
+        <v>6857.32</v>
+      </c>
+      <c r="N32" t="n">
+        <v>14219.95</v>
+      </c>
+      <c r="O32" t="n">
+        <v>887.98</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1936.95</v>
+        <v>1163.47</v>
       </c>
       <c r="C33" t="n">
-        <v>22430.62</v>
+        <v>13440.55</v>
       </c>
       <c r="D33" t="n">
-        <v>5787.06</v>
+        <v>3542.16</v>
       </c>
       <c r="E33" t="n">
-        <v>72465.67</v>
+        <v>43110.89</v>
       </c>
       <c r="F33" t="n">
-        <v>30958.14</v>
+        <v>17439.54</v>
       </c>
       <c r="G33" t="n">
-        <v>64741.67</v>
+        <v>38405.26</v>
       </c>
       <c r="H33" t="n">
-        <v>3920.35</v>
+        <v>2347.89</v>
+      </c>
+      <c r="I33" t="n">
+        <v>692.29</v>
+      </c>
+      <c r="J33" t="n">
+        <v>8434.739999999998</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2136.92</v>
+      </c>
+      <c r="L33" t="n">
+        <v>27014.51</v>
+      </c>
+      <c r="M33" t="n">
+        <v>10582.22</v>
+      </c>
+      <c r="N33" t="n">
+        <v>24185.31</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1459.91</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1163.47</v>
+        <v>1936.95</v>
       </c>
       <c r="C34" t="n">
-        <v>13440.55</v>
+        <v>22430.62</v>
       </c>
       <c r="D34" t="n">
-        <v>3542.16</v>
+        <v>5787.06</v>
       </c>
       <c r="E34" t="n">
-        <v>43110.89</v>
+        <v>72465.67</v>
       </c>
       <c r="F34" t="n">
-        <v>17439.54</v>
+        <v>30958.14</v>
       </c>
       <c r="G34" t="n">
-        <v>38405.26</v>
+        <v>64741.67</v>
       </c>
       <c r="H34" t="n">
-        <v>2347.89</v>
+        <v>3920.35</v>
+      </c>
+      <c r="I34" t="n">
+        <v>773.48</v>
+      </c>
+      <c r="J34" t="n">
+        <v>8990.07</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2244.900000000001</v>
+      </c>
+      <c r="L34" t="n">
+        <v>29354.78</v>
+      </c>
+      <c r="M34" t="n">
+        <v>13518.6</v>
+      </c>
+      <c r="N34" t="n">
+        <v>26336.41</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1572.46</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1413,11 +2133,32 @@
       <c r="H35" t="n">
         <v>6629.37</v>
       </c>
+      <c r="I35" t="n">
+        <v>1325.86</v>
+      </c>
+      <c r="J35" t="n">
+        <v>12905</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3779.849999999999</v>
+      </c>
+      <c r="L35" t="n">
+        <v>45268.49000000001</v>
+      </c>
+      <c r="M35" t="n">
+        <v>31066.27</v>
+      </c>
+      <c r="N35" t="n">
+        <v>40162.77</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2709.02</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1441,67 +2182,130 @@
       <c r="H36" t="n">
         <v>1113.97</v>
       </c>
+      <c r="I36" t="n">
+        <v>569.28</v>
+      </c>
+      <c r="J36" t="n">
+        <v>5734.06</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1654.85</v>
+      </c>
+      <c r="L36" t="n">
+        <v>18830.64</v>
+      </c>
+      <c r="M36" t="n">
+        <v>8302.959999999999</v>
+      </c>
+      <c r="N36" t="n">
+        <v>16606.52</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1113.97</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2399.46</v>
+        <v>1433.53</v>
       </c>
       <c r="C37" t="n">
-        <v>26771.34</v>
+        <v>15948.91</v>
       </c>
       <c r="D37" t="n">
-        <v>6868.77</v>
+        <v>4160.13</v>
       </c>
       <c r="E37" t="n">
-        <v>85243.24000000001</v>
+        <v>50459.69</v>
       </c>
       <c r="F37" t="n">
-        <v>37661.94</v>
+        <v>21332.03</v>
       </c>
       <c r="G37" t="n">
-        <v>75975.00999999999</v>
+        <v>44866.04</v>
       </c>
       <c r="H37" t="n">
-        <v>4833.95</v>
+        <v>2835</v>
+      </c>
+      <c r="I37" t="n">
+        <v>864.25</v>
+      </c>
+      <c r="J37" t="n">
+        <v>10214.85</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2505.28</v>
+      </c>
+      <c r="L37" t="n">
+        <v>31629.05</v>
+      </c>
+      <c r="M37" t="n">
+        <v>13029.07</v>
+      </c>
+      <c r="N37" t="n">
+        <v>28259.52</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1721.03</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1433.53</v>
+        <v>2399.46</v>
       </c>
       <c r="C38" t="n">
-        <v>15948.91</v>
+        <v>26771.34</v>
       </c>
       <c r="D38" t="n">
-        <v>4160.13</v>
+        <v>6868.77</v>
       </c>
       <c r="E38" t="n">
-        <v>50459.69</v>
+        <v>85243.24000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>21332.03</v>
+        <v>37661.94</v>
       </c>
       <c r="G38" t="n">
-        <v>44866.04</v>
+        <v>75975.00999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>2835</v>
+        <v>4833.95</v>
+      </c>
+      <c r="I38" t="n">
+        <v>965.9300000000001</v>
+      </c>
+      <c r="J38" t="n">
+        <v>10822.43</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2708.64</v>
+      </c>
+      <c r="L38" t="n">
+        <v>34783.55</v>
+      </c>
+      <c r="M38" t="n">
+        <v>16329.91</v>
+      </c>
+      <c r="N38" t="n">
+        <v>31108.96999999999</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1998.95</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1525,11 +2329,32 @@
       <c r="H39" t="n">
         <v>7853.91</v>
       </c>
+      <c r="I39" t="n">
+        <v>1658.05</v>
+      </c>
+      <c r="J39" t="n">
+        <v>15625.79</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4128.73</v>
+      </c>
+      <c r="L39" t="n">
+        <v>50060.09999999999</v>
+      </c>
+      <c r="M39" t="n">
+        <v>37841.67999999999</v>
+      </c>
+      <c r="N39" t="n">
+        <v>44273.32000000001</v>
+      </c>
+      <c r="O39" t="n">
+        <v>3019.96</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1553,67 +2378,130 @@
       <c r="H40" t="n">
         <v>1429.9</v>
       </c>
+      <c r="I40" t="n">
+        <v>687.65</v>
+      </c>
+      <c r="J40" t="n">
+        <v>6828.58</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2002.44</v>
+      </c>
+      <c r="L40" t="n">
+        <v>22633.85</v>
+      </c>
+      <c r="M40" t="n">
+        <v>10423.76</v>
+      </c>
+      <c r="N40" t="n">
+        <v>19943.76</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1429.9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2918.41</v>
+        <v>1687.23</v>
       </c>
       <c r="C41" t="n">
-        <v>32487.81</v>
+        <v>19307.12</v>
       </c>
       <c r="D41" t="n">
-        <v>8216.549999999999</v>
+        <v>4997.78</v>
       </c>
       <c r="E41" t="n">
-        <v>101498.21</v>
+        <v>60177.11</v>
       </c>
       <c r="F41" t="n">
-        <v>45827.04</v>
+        <v>26613.17</v>
       </c>
       <c r="G41" t="n">
-        <v>90363.25999999999</v>
+        <v>53492.1</v>
       </c>
       <c r="H41" t="n">
-        <v>5841.32</v>
+        <v>3515.19</v>
+      </c>
+      <c r="I41" t="n">
+        <v>999.58</v>
+      </c>
+      <c r="J41" t="n">
+        <v>12478.54</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2995.34</v>
+      </c>
+      <c r="L41" t="n">
+        <v>37543.26</v>
+      </c>
+      <c r="M41" t="n">
+        <v>16189.41</v>
+      </c>
+      <c r="N41" t="n">
+        <v>33548.34</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2085.29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1687.23</v>
+        <v>2918.41</v>
       </c>
       <c r="C42" t="n">
-        <v>19307.12</v>
+        <v>32487.81</v>
       </c>
       <c r="D42" t="n">
-        <v>4997.78</v>
+        <v>8216.549999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>60177.11</v>
+        <v>101498.21</v>
       </c>
       <c r="F42" t="n">
-        <v>26613.17</v>
+        <v>45827.04</v>
       </c>
       <c r="G42" t="n">
-        <v>53492.1</v>
+        <v>90363.25999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>3515.19</v>
+        <v>5841.32</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1231.18</v>
+      </c>
+      <c r="J42" t="n">
+        <v>13180.69</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3218.77</v>
+      </c>
+      <c r="L42" t="n">
+        <v>41321.10000000001</v>
+      </c>
+      <c r="M42" t="n">
+        <v>19213.87</v>
+      </c>
+      <c r="N42" t="n">
+        <v>36871.16</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2326.13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1637,11 +2525,32 @@
       <c r="H43" t="n">
         <v>9434</v>
       </c>
+      <c r="I43" t="n">
+        <v>1892.51</v>
+      </c>
+      <c r="J43" t="n">
+        <v>17705.07</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5138.650000000001</v>
+      </c>
+      <c r="L43" t="n">
+        <v>57814.74000000001</v>
+      </c>
+      <c r="M43" t="n">
+        <v>44371.60999999999</v>
+      </c>
+      <c r="N43" t="n">
+        <v>50783.56999999999</v>
+      </c>
+      <c r="O43" t="n">
+        <v>3592.68</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1665,67 +2574,130 @@
       <c r="H44" t="n">
         <v>1640.48</v>
       </c>
+      <c r="I44" t="n">
+        <v>826.4299999999999</v>
+      </c>
+      <c r="J44" t="n">
+        <v>8266.610000000001</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2302.13</v>
+      </c>
+      <c r="L44" t="n">
+        <v>26238.12</v>
+      </c>
+      <c r="M44" t="n">
+        <v>12095.96</v>
+      </c>
+      <c r="N44" t="n">
+        <v>23109.55</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1640.48</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3260.01</v>
+        <v>2002.97</v>
       </c>
       <c r="C45" t="n">
-        <v>37370.24</v>
+        <v>22160.32</v>
       </c>
       <c r="D45" t="n">
-        <v>9090.440000000001</v>
+        <v>5628.2</v>
       </c>
       <c r="E45" t="n">
-        <v>115247.52</v>
+        <v>69399.7</v>
       </c>
       <c r="F45" t="n">
-        <v>52288.32</v>
+        <v>30753.21</v>
       </c>
       <c r="G45" t="n">
-        <v>102897.06</v>
+        <v>61768.53</v>
       </c>
       <c r="H45" t="n">
-        <v>6549.31</v>
+        <v>3995.39</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1176.54</v>
+      </c>
+      <c r="J45" t="n">
+        <v>13893.71</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3326.07</v>
+      </c>
+      <c r="L45" t="n">
+        <v>43161.58</v>
+      </c>
+      <c r="M45" t="n">
+        <v>18657.25</v>
+      </c>
+      <c r="N45" t="n">
+        <v>38658.98</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2354.91</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2002.97</v>
+        <v>3260.01</v>
       </c>
       <c r="C46" t="n">
-        <v>22160.32</v>
+        <v>37370.24</v>
       </c>
       <c r="D46" t="n">
-        <v>5628.2</v>
+        <v>9090.440000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>69399.7</v>
+        <v>115247.52</v>
       </c>
       <c r="F46" t="n">
-        <v>30753.21</v>
+        <v>52288.32</v>
       </c>
       <c r="G46" t="n">
-        <v>61768.53</v>
+        <v>102897.06</v>
       </c>
       <c r="H46" t="n">
-        <v>3995.39</v>
+        <v>6549.31</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1257.04</v>
+      </c>
+      <c r="J46" t="n">
+        <v>15209.92</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3462.240000000001</v>
+      </c>
+      <c r="L46" t="n">
+        <v>45847.82000000001</v>
+      </c>
+      <c r="M46" t="n">
+        <v>21535.11</v>
+      </c>
+      <c r="N46" t="n">
+        <v>41128.53</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2553.920000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1749,11 +2721,32 @@
       <c r="H47" t="n">
         <v>10373.1</v>
       </c>
+      <c r="I47" t="n">
+        <v>2051.09</v>
+      </c>
+      <c r="J47" t="n">
+        <v>19897.11</v>
+      </c>
+      <c r="K47" t="n">
+        <v>5169.35</v>
+      </c>
+      <c r="L47" t="n">
+        <v>61465.87999999999</v>
+      </c>
+      <c r="M47" t="n">
+        <v>48431.19</v>
+      </c>
+      <c r="N47" t="n">
+        <v>54245.45000000001</v>
+      </c>
+      <c r="O47" t="n">
+        <v>3823.79</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1777,67 +2770,130 @@
       <c r="H48" t="n">
         <v>1773.66</v>
       </c>
+      <c r="I48" t="n">
+        <v>909.45</v>
+      </c>
+      <c r="J48" t="n">
+        <v>9189.93</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2550.38</v>
+      </c>
+      <c r="L48" t="n">
+        <v>28895.36</v>
+      </c>
+      <c r="M48" t="n">
+        <v>14281.96</v>
+      </c>
+      <c r="N48" t="n">
+        <v>25435.52</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1773.66</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3339.98</v>
+        <v>2083.78</v>
       </c>
       <c r="C49" t="n">
-        <v>39015.9</v>
+        <v>23581.08</v>
       </c>
       <c r="D49" t="n">
-        <v>9497.74</v>
+        <v>5863.07</v>
       </c>
       <c r="E49" t="n">
-        <v>117947.3</v>
+        <v>72374.42999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>58420.31</v>
+        <v>34465.24</v>
       </c>
       <c r="G49" t="n">
-        <v>105109.57</v>
+        <v>64427.58</v>
       </c>
       <c r="H49" t="n">
-        <v>6640.06</v>
+        <v>4114.49</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1174.33</v>
+      </c>
+      <c r="J49" t="n">
+        <v>14391.15</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3312.69</v>
+      </c>
+      <c r="L49" t="n">
+        <v>43479.06999999999</v>
+      </c>
+      <c r="M49" t="n">
+        <v>20183.28</v>
+      </c>
+      <c r="N49" t="n">
+        <v>38992.06</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2340.83</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2083.78</v>
+        <v>3339.98</v>
       </c>
       <c r="C50" t="n">
-        <v>23581.08</v>
+        <v>39015.9</v>
       </c>
       <c r="D50" t="n">
-        <v>5863.07</v>
+        <v>9497.74</v>
       </c>
       <c r="E50" t="n">
-        <v>72374.42999999999</v>
+        <v>117947.3</v>
       </c>
       <c r="F50" t="n">
-        <v>34465.24</v>
+        <v>58420.31</v>
       </c>
       <c r="G50" t="n">
-        <v>64427.58</v>
+        <v>105109.57</v>
       </c>
       <c r="H50" t="n">
-        <v>4114.49</v>
+        <v>6640.06</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1256.2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>15434.82</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3634.67</v>
+      </c>
+      <c r="L50" t="n">
+        <v>45572.87000000001</v>
+      </c>
+      <c r="M50" t="n">
+        <v>23955.07</v>
+      </c>
+      <c r="N50" t="n">
+        <v>40681.99000000001</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2525.570000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1861,11 +2917,32 @@
       <c r="H51" t="n">
         <v>10508.05</v>
       </c>
+      <c r="I51" t="n">
+        <v>2157.8</v>
+      </c>
+      <c r="J51" t="n">
+        <v>21187.64</v>
+      </c>
+      <c r="K51" t="n">
+        <v>5484.74</v>
+      </c>
+      <c r="L51" t="n">
+        <v>62810.17</v>
+      </c>
+      <c r="M51" t="n">
+        <v>51695.62</v>
+      </c>
+      <c r="N51" t="n">
+        <v>55167.63999999998</v>
+      </c>
+      <c r="O51" t="n">
+        <v>3867.989999999999</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1889,67 +2966,130 @@
       <c r="H52" t="n">
         <v>1917.51</v>
       </c>
+      <c r="I52" t="n">
+        <v>962.41</v>
+      </c>
+      <c r="J52" t="n">
+        <v>9604.82</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2766.16</v>
+      </c>
+      <c r="L52" t="n">
+        <v>30849.97</v>
+      </c>
+      <c r="M52" t="n">
+        <v>15877.61</v>
+      </c>
+      <c r="N52" t="n">
+        <v>27121.4</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1917.51</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3705</v>
+        <v>2338.09</v>
       </c>
       <c r="C53" t="n">
-        <v>42535.52</v>
+        <v>25673.15</v>
       </c>
       <c r="D53" t="n">
-        <v>10162.6</v>
+        <v>6422.63</v>
       </c>
       <c r="E53" t="n">
-        <v>125791.6</v>
+        <v>77461.75</v>
       </c>
       <c r="F53" t="n">
-        <v>60868.58</v>
+        <v>37382.35</v>
       </c>
       <c r="G53" t="n">
-        <v>111924</v>
+        <v>68701.03</v>
       </c>
       <c r="H53" t="n">
-        <v>7153.13</v>
+        <v>4446.43</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1375.68</v>
+      </c>
+      <c r="J53" t="n">
+        <v>16068.33</v>
+      </c>
+      <c r="K53" t="n">
+        <v>3656.47</v>
+      </c>
+      <c r="L53" t="n">
+        <v>46611.78</v>
+      </c>
+      <c r="M53" t="n">
+        <v>21504.74</v>
+      </c>
+      <c r="N53" t="n">
+        <v>41579.63</v>
+      </c>
+      <c r="O53" t="n">
+        <v>2528.92</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2338.09</v>
+        <v>3705</v>
       </c>
       <c r="C54" t="n">
-        <v>25673.15</v>
+        <v>42535.52</v>
       </c>
       <c r="D54" t="n">
-        <v>6422.63</v>
+        <v>10162.6</v>
       </c>
       <c r="E54" t="n">
-        <v>77461.75</v>
+        <v>125791.6</v>
       </c>
       <c r="F54" t="n">
-        <v>37382.35</v>
+        <v>60868.58</v>
       </c>
       <c r="G54" t="n">
-        <v>68701.03</v>
+        <v>111924</v>
       </c>
       <c r="H54" t="n">
-        <v>4446.43</v>
+        <v>7153.13</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1366.91</v>
+      </c>
+      <c r="J54" t="n">
+        <v>16862.37</v>
+      </c>
+      <c r="K54" t="n">
+        <v>3739.97</v>
+      </c>
+      <c r="L54" t="n">
+        <v>48329.85000000001</v>
+      </c>
+      <c r="M54" t="n">
+        <v>23486.23</v>
+      </c>
+      <c r="N54" t="n">
+        <v>43222.97</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2706.7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1973,11 +3113,32 @@
       <c r="H55" t="n">
         <v>11295.16</v>
       </c>
+      <c r="I55" t="n">
+        <v>2222.55</v>
+      </c>
+      <c r="J55" t="n">
+        <v>23918.13</v>
+      </c>
+      <c r="K55" t="n">
+        <v>5612.4</v>
+      </c>
+      <c r="L55" t="n">
+        <v>67775.17999999999</v>
+      </c>
+      <c r="M55" t="n">
+        <v>52024.02</v>
+      </c>
+      <c r="N55" t="n">
+        <v>59940.23000000001</v>
+      </c>
+      <c r="O55" t="n">
+        <v>4142.03</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2001,67 +3162,130 @@
       <c r="H56" t="n">
         <v>2058.72</v>
       </c>
+      <c r="I56" t="n">
+        <v>1132.71</v>
+      </c>
+      <c r="J56" t="n">
+        <v>10864.08</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3025.09</v>
+      </c>
+      <c r="L56" t="n">
+        <v>34188.67</v>
+      </c>
+      <c r="M56" t="n">
+        <v>16798.37</v>
+      </c>
+      <c r="N56" t="n">
+        <v>30030.88</v>
+      </c>
+      <c r="O56" t="n">
+        <v>2058.72</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4276.86</v>
+        <v>2676.24</v>
       </c>
       <c r="C57" t="n">
-        <v>48049.8</v>
+        <v>29403.79</v>
       </c>
       <c r="D57" t="n">
-        <v>11442.49</v>
+        <v>7072.8</v>
       </c>
       <c r="E57" t="n">
-        <v>139259.73</v>
+        <v>85871.09</v>
       </c>
       <c r="F57" t="n">
-        <v>64354.83</v>
+        <v>39192.28</v>
       </c>
       <c r="G57" t="n">
-        <v>123540.37</v>
+        <v>76122.06</v>
       </c>
       <c r="H57" t="n">
-        <v>7623.38</v>
+        <v>4793.18</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1543.53</v>
+      </c>
+      <c r="J57" t="n">
+        <v>18539.71</v>
+      </c>
+      <c r="K57" t="n">
+        <v>4047.71</v>
+      </c>
+      <c r="L57" t="n">
+        <v>51682.42</v>
+      </c>
+      <c r="M57" t="n">
+        <v>22393.91</v>
+      </c>
+      <c r="N57" t="n">
+        <v>46091.17999999999</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2734.46</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2676.24</v>
+        <v>4276.86</v>
       </c>
       <c r="C58" t="n">
-        <v>29403.79</v>
+        <v>48049.8</v>
       </c>
       <c r="D58" t="n">
-        <v>7072.8</v>
+        <v>11442.49</v>
       </c>
       <c r="E58" t="n">
-        <v>85871.09</v>
+        <v>139259.73</v>
       </c>
       <c r="F58" t="n">
-        <v>39192.28</v>
+        <v>64354.83</v>
       </c>
       <c r="G58" t="n">
-        <v>76122.06</v>
+        <v>123540.37</v>
       </c>
       <c r="H58" t="n">
-        <v>4793.18</v>
+        <v>7623.38</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1600.62</v>
+      </c>
+      <c r="J58" t="n">
+        <v>18646.01</v>
+      </c>
+      <c r="K58" t="n">
+        <v>4369.69</v>
+      </c>
+      <c r="L58" t="n">
+        <v>53388.64000000001</v>
+      </c>
+      <c r="M58" t="n">
+        <v>25162.55</v>
+      </c>
+      <c r="N58" t="n">
+        <v>47418.31</v>
+      </c>
+      <c r="O58" t="n">
+        <v>2830.2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2085,11 +3309,32 @@
       <c r="H59" t="n">
         <v>12017.27</v>
       </c>
+      <c r="I59" t="n">
+        <v>2615.860000000001</v>
+      </c>
+      <c r="J59" t="n">
+        <v>26339.95999999999</v>
+      </c>
+      <c r="K59" t="n">
+        <v>6457.730000000001</v>
+      </c>
+      <c r="L59" t="n">
+        <v>74694.22999999998</v>
+      </c>
+      <c r="M59" t="n">
+        <v>52437.06</v>
+      </c>
+      <c r="N59" t="n">
+        <v>65620.64999999999</v>
+      </c>
+      <c r="O59" t="n">
+        <v>4393.89</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2113,67 +3358,130 @@
       <c r="H60" t="n">
         <v>2297.76</v>
       </c>
+      <c r="I60" t="n">
+        <v>1291.1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>12400.31</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3584.61</v>
+      </c>
+      <c r="L60" t="n">
+        <v>38691.96</v>
+      </c>
+      <c r="M60" t="n">
+        <v>18491.39</v>
+      </c>
+      <c r="N60" t="n">
+        <v>33816.25</v>
+      </c>
+      <c r="O60" t="n">
+        <v>2297.76</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5050.5</v>
+        <v>3159.78</v>
       </c>
       <c r="C61" t="n">
-        <v>53532.31</v>
+        <v>33262.11</v>
       </c>
       <c r="D61" t="n">
-        <v>12550.59</v>
+        <v>7965.09</v>
       </c>
       <c r="E61" t="n">
-        <v>152326.24</v>
+        <v>94790.39</v>
       </c>
       <c r="F61" t="n">
-        <v>65581.92</v>
+        <v>40167.55</v>
       </c>
       <c r="G61" t="n">
-        <v>134725.14</v>
+        <v>83665.52</v>
       </c>
       <c r="H61" t="n">
-        <v>8263.59</v>
+        <v>5186.18</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1868.68</v>
+      </c>
+      <c r="J61" t="n">
+        <v>20861.8</v>
+      </c>
+      <c r="K61" t="n">
+        <v>4380.48</v>
+      </c>
+      <c r="L61" t="n">
+        <v>56098.43</v>
+      </c>
+      <c r="M61" t="n">
+        <v>21676.16</v>
+      </c>
+      <c r="N61" t="n">
+        <v>49849.27</v>
+      </c>
+      <c r="O61" t="n">
+        <v>2888.42</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3159.78</v>
+        <v>5050.5</v>
       </c>
       <c r="C62" t="n">
-        <v>33262.11</v>
+        <v>53532.31</v>
       </c>
       <c r="D62" t="n">
-        <v>7965.09</v>
+        <v>12550.59</v>
       </c>
       <c r="E62" t="n">
-        <v>94790.39</v>
+        <v>152326.24</v>
       </c>
       <c r="F62" t="n">
-        <v>40167.55</v>
+        <v>65581.92</v>
       </c>
       <c r="G62" t="n">
-        <v>83665.52</v>
+        <v>134725.14</v>
       </c>
       <c r="H62" t="n">
-        <v>5186.18</v>
+        <v>8263.59</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1890.72</v>
+      </c>
+      <c r="J62" t="n">
+        <v>20270.2</v>
+      </c>
+      <c r="K62" t="n">
+        <v>4585.5</v>
+      </c>
+      <c r="L62" t="n">
+        <v>57535.84999999999</v>
+      </c>
+      <c r="M62" t="n">
+        <v>25414.37</v>
+      </c>
+      <c r="N62" t="n">
+        <v>51059.62000000001</v>
+      </c>
+      <c r="O62" t="n">
+        <v>3077.41</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2197,11 +3505,32 @@
       <c r="H63" t="n">
         <v>12949.84</v>
       </c>
+      <c r="I63" t="n">
+        <v>2818.41</v>
+      </c>
+      <c r="J63" t="n">
+        <v>28623.39</v>
+      </c>
+      <c r="K63" t="n">
+        <v>7079.57</v>
+      </c>
+      <c r="L63" t="n">
+        <v>82759.29000000001</v>
+      </c>
+      <c r="M63" t="n">
+        <v>55204.3</v>
+      </c>
+      <c r="N63" t="n">
+        <v>72861.31</v>
+      </c>
+      <c r="O63" t="n">
+        <v>4686.25</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2225,67 +3554,130 @@
       <c r="H64" t="n">
         <v>2325.86</v>
       </c>
+      <c r="I64" t="n">
+        <v>1554.26</v>
+      </c>
+      <c r="J64" t="n">
+        <v>13801.54</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3931.78</v>
+      </c>
+      <c r="L64" t="n">
+        <v>42758.39</v>
+      </c>
+      <c r="M64" t="n">
+        <v>18864.2</v>
+      </c>
+      <c r="N64" t="n">
+        <v>37272.36</v>
+      </c>
+      <c r="O64" t="n">
+        <v>2325.86</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>5150.47</v>
+        <v>3418.35</v>
       </c>
       <c r="C65" t="n">
-        <v>55301.23</v>
+        <v>34256.58</v>
       </c>
       <c r="D65" t="n">
-        <v>13672.64</v>
+        <v>8692.59</v>
       </c>
       <c r="E65" t="n">
-        <v>162467.33</v>
+        <v>101616.12</v>
       </c>
       <c r="F65" t="n">
-        <v>67241.09</v>
+        <v>41263.71</v>
       </c>
       <c r="G65" t="n">
-        <v>143644.22</v>
+        <v>89505.17999999999</v>
       </c>
       <c r="H65" t="n">
-        <v>7867.93</v>
+        <v>5031.66</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1864.09</v>
+      </c>
+      <c r="J65" t="n">
+        <v>20455.04</v>
+      </c>
+      <c r="K65" t="n">
+        <v>4760.809999999999</v>
+      </c>
+      <c r="L65" t="n">
+        <v>58857.73</v>
+      </c>
+      <c r="M65" t="n">
+        <v>22399.51</v>
+      </c>
+      <c r="N65" t="n">
+        <v>52232.81999999999</v>
+      </c>
+      <c r="O65" t="n">
+        <v>2705.8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3418.35</v>
+        <v>5150.47</v>
       </c>
       <c r="C66" t="n">
-        <v>34256.58</v>
+        <v>55301.23</v>
       </c>
       <c r="D66" t="n">
-        <v>8692.59</v>
+        <v>13672.64</v>
       </c>
       <c r="E66" t="n">
-        <v>101616.12</v>
+        <v>162467.33</v>
       </c>
       <c r="F66" t="n">
-        <v>41263.71</v>
+        <v>67241.09</v>
       </c>
       <c r="G66" t="n">
-        <v>89505.17999999999</v>
+        <v>143644.22</v>
       </c>
       <c r="H66" t="n">
-        <v>5031.66</v>
+        <v>7867.93</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1732.12</v>
+      </c>
+      <c r="J66" t="n">
+        <v>21044.65</v>
+      </c>
+      <c r="K66" t="n">
+        <v>4980.049999999999</v>
+      </c>
+      <c r="L66" t="n">
+        <v>60851.20999999999</v>
+      </c>
+      <c r="M66" t="n">
+        <v>25977.38</v>
+      </c>
+      <c r="N66" t="n">
+        <v>54139.04000000001</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2836.27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2309,11 +3701,32 @@
       <c r="H67" t="n">
         <v>12357.35</v>
       </c>
+      <c r="I67" t="n">
+        <v>3278.349999999999</v>
+      </c>
+      <c r="J67" t="n">
+        <v>28133.91</v>
+      </c>
+      <c r="K67" t="n">
+        <v>7680.150000000001</v>
+      </c>
+      <c r="L67" t="n">
+        <v>85978.44</v>
+      </c>
+      <c r="M67" t="n">
+        <v>56593.04000000001</v>
+      </c>
+      <c r="N67" t="n">
+        <v>75019.94</v>
+      </c>
+      <c r="O67" t="n">
+        <v>4489.42</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2337,67 +3750,130 @@
       <c r="H68" t="n">
         <v>1742.24</v>
       </c>
+      <c r="I68" t="n">
+        <v>1273.78</v>
+      </c>
+      <c r="J68" t="n">
+        <v>11420.82</v>
+      </c>
+      <c r="K68" t="n">
+        <v>3263.02</v>
+      </c>
+      <c r="L68" t="n">
+        <v>35916.59</v>
+      </c>
+      <c r="M68" t="n">
+        <v>14544.35</v>
+      </c>
+      <c r="N68" t="n">
+        <v>31379.79</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1742.24</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5575.72</v>
+        <v>3440.93</v>
       </c>
       <c r="C69" t="n">
-        <v>58792.68</v>
+        <v>34913.28</v>
       </c>
       <c r="D69" t="n">
-        <v>13680.05</v>
+        <v>8494.15</v>
       </c>
       <c r="E69" t="n">
-        <v>167927</v>
+        <v>100840.12</v>
       </c>
       <c r="F69" t="n">
-        <v>63454.15</v>
+        <v>38027.75</v>
       </c>
       <c r="G69" t="n">
-        <v>148671.23</v>
+        <v>88905.03999999999</v>
       </c>
       <c r="H69" t="n">
-        <v>7158.82</v>
+        <v>4401.27</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2167.15</v>
+      </c>
+      <c r="J69" t="n">
+        <v>23492.46</v>
+      </c>
+      <c r="K69" t="n">
+        <v>5231.129999999999</v>
+      </c>
+      <c r="L69" t="n">
+        <v>64923.53</v>
+      </c>
+      <c r="M69" t="n">
+        <v>23483.4</v>
+      </c>
+      <c r="N69" t="n">
+        <v>57525.24999999999</v>
+      </c>
+      <c r="O69" t="n">
+        <v>2659.030000000001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3440.93</v>
+        <v>5575.72</v>
       </c>
       <c r="C70" t="n">
-        <v>34913.28</v>
+        <v>58792.68</v>
       </c>
       <c r="D70" t="n">
-        <v>8494.15</v>
+        <v>13680.05</v>
       </c>
       <c r="E70" t="n">
-        <v>100840.12</v>
+        <v>167927</v>
       </c>
       <c r="F70" t="n">
-        <v>38027.75</v>
+        <v>63454.15</v>
       </c>
       <c r="G70" t="n">
-        <v>88905.03999999999</v>
+        <v>148671.23</v>
       </c>
       <c r="H70" t="n">
-        <v>4401.27</v>
+        <v>7158.82</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2134.79</v>
+      </c>
+      <c r="J70" t="n">
+        <v>23879.4</v>
+      </c>
+      <c r="K70" t="n">
+        <v>5185.9</v>
+      </c>
+      <c r="L70" t="n">
+        <v>67086.88</v>
+      </c>
+      <c r="M70" t="n">
+        <v>25426.4</v>
+      </c>
+      <c r="N70" t="n">
+        <v>59766.19000000002</v>
+      </c>
+      <c r="O70" t="n">
+        <v>2757.549999999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2421,11 +3897,32 @@
       <c r="H71" t="n">
         <v>11493.82</v>
       </c>
+      <c r="I71" t="n">
+        <v>3573.64</v>
+      </c>
+      <c r="J71" t="n">
+        <v>32278.04</v>
+      </c>
+      <c r="K71" t="n">
+        <v>8400.530000000002</v>
+      </c>
+      <c r="L71" t="n">
+        <v>96020.03999999998</v>
+      </c>
+      <c r="M71" t="n">
+        <v>58702.62</v>
+      </c>
+      <c r="N71" t="n">
+        <v>84045.87999999998</v>
+      </c>
+      <c r="O71" t="n">
+        <v>4335</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2449,67 +3946,130 @@
       <c r="H72" t="n">
         <v>2270.57</v>
       </c>
+      <c r="I72" t="n">
+        <v>1644.39</v>
+      </c>
+      <c r="J72" t="n">
+        <v>15250.17</v>
+      </c>
+      <c r="K72" t="n">
+        <v>4283.39</v>
+      </c>
+      <c r="L72" t="n">
+        <v>47333.17</v>
+      </c>
+      <c r="M72" t="n">
+        <v>19191.86</v>
+      </c>
+      <c r="N72" t="n">
+        <v>41405.4</v>
+      </c>
+      <c r="O72" t="n">
+        <v>2270.57</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6219.61</v>
+        <v>3934.9</v>
       </c>
       <c r="C73" t="n">
-        <v>66567.7</v>
+        <v>41441</v>
       </c>
       <c r="D73" t="n">
-        <v>15765.15</v>
+        <v>9972.879999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>191283.37</v>
+        <v>119843.55</v>
       </c>
       <c r="F73" t="n">
-        <v>72350.10000000001</v>
+        <v>44334.74</v>
       </c>
       <c r="G73" t="n">
-        <v>169298.61</v>
+        <v>105935.77</v>
       </c>
       <c r="H73" t="n">
-        <v>8061.54</v>
+        <v>5219.06</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2290.51</v>
+      </c>
+      <c r="J73" t="n">
+        <v>26190.83</v>
+      </c>
+      <c r="K73" t="n">
+        <v>5689.489999999999</v>
+      </c>
+      <c r="L73" t="n">
+        <v>72510.38</v>
+      </c>
+      <c r="M73" t="n">
+        <v>25142.88</v>
+      </c>
+      <c r="N73" t="n">
+        <v>64530.37</v>
+      </c>
+      <c r="O73" t="n">
+        <v>2948.49</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3934.9</v>
+        <v>6219.61</v>
       </c>
       <c r="C74" t="n">
-        <v>41441</v>
+        <v>66567.7</v>
       </c>
       <c r="D74" t="n">
-        <v>9972.879999999999</v>
+        <v>15765.15</v>
       </c>
       <c r="E74" t="n">
-        <v>119843.55</v>
+        <v>191283.37</v>
       </c>
       <c r="F74" t="n">
-        <v>44334.74</v>
+        <v>72350.10000000001</v>
       </c>
       <c r="G74" t="n">
-        <v>105935.77</v>
+        <v>169298.61</v>
       </c>
       <c r="H74" t="n">
-        <v>5219.06</v>
+        <v>8061.54</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2284.71</v>
+      </c>
+      <c r="J74" t="n">
+        <v>25126.7</v>
+      </c>
+      <c r="K74" t="n">
+        <v>5792.27</v>
+      </c>
+      <c r="L74" t="n">
+        <v>71439.81999999999</v>
+      </c>
+      <c r="M74" t="n">
+        <v>28015.36000000001</v>
+      </c>
+      <c r="N74" t="n">
+        <v>63362.83999999998</v>
+      </c>
+      <c r="O74" t="n">
+        <v>2842.48</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2532,6 +4092,27 @@
       </c>
       <c r="H75" t="n">
         <v>12411.63</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3175.490000000001</v>
+      </c>
+      <c r="J75" t="n">
+        <v>34143.92</v>
+      </c>
+      <c r="K75" t="n">
+        <v>8713.67</v>
+      </c>
+      <c r="L75" t="n">
+        <v>101795.94</v>
+      </c>
+      <c r="M75" t="n">
+        <v>62172.85000000001</v>
+      </c>
+      <c r="N75" t="n">
+        <v>89906.78000000003</v>
+      </c>
+      <c r="O75" t="n">
+        <v>4350.089999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data_quarter/zb/建筑业/建筑业总产值.xlsx
+++ b/data_quarter/zb/建筑业/建筑业总产值.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,41 +469,6 @@
           <t>装饰装修产值_累计值</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>其他产值</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>在外省完成的产值</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>安装工程产值</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业总产值</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业竣工产值</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>建筑工程产值</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>装饰装修产值</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -528,23 +493,6 @@
         <v>6769.34</v>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
-        <v>274.86</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="n">
-        <v>874.91</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7919.11</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3274.75</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6769.34</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,23 +517,6 @@
         <v>18574.06</v>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>597.52</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>1544.14</v>
-      </c>
-      <c r="L3" t="n">
-        <v>13946.38</v>
-      </c>
-      <c r="M3" t="n">
-        <v>11713.26</v>
-      </c>
-      <c r="N3" t="n">
-        <v>11804.72</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -614,124 +545,61 @@
       <c r="H4" t="n">
         <v>213.31</v>
       </c>
-      <c r="I4" t="n">
-        <v>171.54</v>
-      </c>
-      <c r="J4" t="n">
-        <v>815.1900000000001</v>
-      </c>
-      <c r="K4" t="n">
-        <v>406.22</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3882.01</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1628.89</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3304.25</v>
-      </c>
-      <c r="O4" t="n">
-        <v>213.31</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年B</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>410.27</v>
+        <v>688.42</v>
       </c>
       <c r="C5" t="n">
-        <v>2240.42</v>
+        <v>3771.2</v>
       </c>
       <c r="D5" t="n">
-        <v>1082.47</v>
+        <v>1736.97</v>
       </c>
       <c r="E5" t="n">
-        <v>10096.65</v>
+        <v>16487.01</v>
       </c>
       <c r="F5" t="n">
-        <v>4200.2</v>
+        <v>8040.04</v>
       </c>
       <c r="G5" t="n">
-        <v>8603.91</v>
+        <v>14061.62</v>
       </c>
       <c r="H5" t="n">
-        <v>539.92</v>
-      </c>
-      <c r="I5" t="n">
-        <v>238.73</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1425.23</v>
-      </c>
-      <c r="K5" t="n">
-        <v>676.25</v>
-      </c>
-      <c r="L5" t="n">
-        <v>6214.639999999999</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2571.309999999999</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5299.66</v>
-      </c>
-      <c r="O5" t="n">
-        <v>326.61</v>
+        <v>908.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年C</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>688.42</v>
+        <v>410.27</v>
       </c>
       <c r="C6" t="n">
-        <v>3771.2</v>
+        <v>2240.42</v>
       </c>
       <c r="D6" t="n">
-        <v>1736.97</v>
+        <v>1082.47</v>
       </c>
       <c r="E6" t="n">
-        <v>16487.01</v>
+        <v>10096.65</v>
       </c>
       <c r="F6" t="n">
-        <v>8040.04</v>
+        <v>4200.2</v>
       </c>
       <c r="G6" t="n">
-        <v>14061.62</v>
+        <v>8603.91</v>
       </c>
       <c r="H6" t="n">
-        <v>908.95</v>
-      </c>
-      <c r="I6" t="n">
-        <v>278.15</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1530.78</v>
-      </c>
-      <c r="K6" t="n">
-        <v>654.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>6390.359999999999</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3839.84</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5457.710000000001</v>
-      </c>
-      <c r="O6" t="n">
-        <v>369.0300000000001</v>
+        <v>539.92</v>
       </c>
     </row>
     <row r="7">
@@ -761,27 +629,6 @@
       <c r="H7" t="n">
         <v>1647.73</v>
       </c>
-      <c r="I7" t="n">
-        <v>695.5700000000001</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2597.77</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1331.5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>11258.37</v>
-      </c>
-      <c r="M7" t="n">
-        <v>10598.18</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9231.299999999997</v>
-      </c>
-      <c r="O7" t="n">
-        <v>738.78</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -810,124 +657,61 @@
       <c r="H8" t="n">
         <v>233.52</v>
       </c>
-      <c r="I8" t="n">
-        <v>179.54</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1073.27</v>
-      </c>
-      <c r="K8" t="n">
-        <v>518.08</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4514.14</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1805.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3816.51</v>
-      </c>
-      <c r="O8" t="n">
-        <v>233.52</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2005年B</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>436.88</v>
+        <v>716.6</v>
       </c>
       <c r="C9" t="n">
-        <v>3004.59</v>
+        <v>5085.89</v>
       </c>
       <c r="D9" t="n">
-        <v>1308.27</v>
+        <v>2200.33</v>
       </c>
       <c r="E9" t="n">
-        <v>12056.56</v>
+        <v>20056.88</v>
       </c>
       <c r="F9" t="n">
-        <v>5087.82</v>
+        <v>9499.48</v>
       </c>
       <c r="G9" t="n">
-        <v>10311.41</v>
+        <v>17139.95</v>
       </c>
       <c r="H9" t="n">
-        <v>587.6</v>
-      </c>
-      <c r="I9" t="n">
-        <v>257.34</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1931.32</v>
-      </c>
-      <c r="K9" t="n">
-        <v>790.1899999999999</v>
-      </c>
-      <c r="L9" t="n">
-        <v>7542.419999999999</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3282.76</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6494.9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>354.08</v>
+        <v>998.5700000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2005年C</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.6</v>
+        <v>436.88</v>
       </c>
       <c r="C10" t="n">
-        <v>5085.89</v>
+        <v>3004.59</v>
       </c>
       <c r="D10" t="n">
-        <v>2200.33</v>
+        <v>1308.27</v>
       </c>
       <c r="E10" t="n">
-        <v>20056.88</v>
+        <v>12056.56</v>
       </c>
       <c r="F10" t="n">
-        <v>9499.48</v>
+        <v>5087.82</v>
       </c>
       <c r="G10" t="n">
-        <v>17139.95</v>
+        <v>10311.41</v>
       </c>
       <c r="H10" t="n">
-        <v>998.5700000000001</v>
-      </c>
-      <c r="I10" t="n">
-        <v>279.72</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2081.3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>892.0599999999999</v>
-      </c>
-      <c r="L10" t="n">
-        <v>8000.320000000002</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4411.66</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6828.540000000001</v>
-      </c>
-      <c r="O10" t="n">
-        <v>410.97</v>
+        <v>587.6</v>
       </c>
     </row>
     <row r="11">
@@ -957,27 +741,6 @@
       <c r="H11" t="n">
         <v>1912.96</v>
       </c>
-      <c r="I11" t="n">
-        <v>648.66</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3290.7</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1720.53</v>
-      </c>
-      <c r="L11" t="n">
-        <v>14688.91</v>
-      </c>
-      <c r="M11" t="n">
-        <v>12573.48</v>
-      </c>
-      <c r="N11" t="n">
-        <v>12319.71</v>
-      </c>
-      <c r="O11" t="n">
-        <v>914.39</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1006,124 +769,61 @@
       <c r="H12" t="n">
         <v>309.58</v>
       </c>
-      <c r="I12" t="n">
-        <v>219.67</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1314.9</v>
-      </c>
-      <c r="K12" t="n">
-        <v>602.14</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5520.79</v>
-      </c>
-      <c r="M12" t="n">
-        <v>2262.59</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4698.99</v>
-      </c>
-      <c r="O12" t="n">
-        <v>309.58</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2006年B</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>533.04</v>
+        <v>846.6</v>
       </c>
       <c r="C13" t="n">
-        <v>3683.01</v>
+        <v>6357.78</v>
       </c>
       <c r="D13" t="n">
-        <v>1581.29</v>
+        <v>2564.09</v>
       </c>
       <c r="E13" t="n">
-        <v>14931.11</v>
+        <v>24914.55</v>
       </c>
       <c r="F13" t="n">
-        <v>6298.71</v>
+        <v>11585.45</v>
       </c>
       <c r="G13" t="n">
-        <v>12816.78</v>
+        <v>21503.85</v>
       </c>
       <c r="H13" t="n">
-        <v>760.59</v>
-      </c>
-      <c r="I13" t="n">
-        <v>313.37</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2368.11</v>
-      </c>
-      <c r="K13" t="n">
-        <v>979.15</v>
-      </c>
-      <c r="L13" t="n">
-        <v>9410.32</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4036.12</v>
-      </c>
-      <c r="N13" t="n">
-        <v>8117.790000000001</v>
-      </c>
-      <c r="O13" t="n">
-        <v>451.01</v>
+        <v>1283.94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2006年C</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>846.6</v>
+        <v>533.04</v>
       </c>
       <c r="C14" t="n">
-        <v>6357.78</v>
+        <v>3683.01</v>
       </c>
       <c r="D14" t="n">
-        <v>2564.09</v>
+        <v>1581.29</v>
       </c>
       <c r="E14" t="n">
-        <v>24914.55</v>
+        <v>14931.11</v>
       </c>
       <c r="F14" t="n">
-        <v>11585.45</v>
+        <v>6298.71</v>
       </c>
       <c r="G14" t="n">
-        <v>21503.85</v>
+        <v>12816.78</v>
       </c>
       <c r="H14" t="n">
-        <v>1283.94</v>
-      </c>
-      <c r="I14" t="n">
-        <v>313.5600000000001</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2674.77</v>
-      </c>
-      <c r="K14" t="n">
-        <v>982.8000000000002</v>
-      </c>
-      <c r="L14" t="n">
-        <v>9983.439999999999</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5286.740000000001</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8687.069999999998</v>
-      </c>
-      <c r="O14" t="n">
-        <v>523.35</v>
+        <v>760.59</v>
       </c>
     </row>
     <row r="15">
@@ -1153,27 +853,6 @@
       <c r="H15" t="n">
         <v>2392.49</v>
       </c>
-      <c r="I15" t="n">
-        <v>571.89</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3888.910000000001</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1757.32</v>
-      </c>
-      <c r="L15" t="n">
-        <v>16060.91</v>
-      </c>
-      <c r="M15" t="n">
-        <v>14465.78</v>
-      </c>
-      <c r="N15" t="n">
-        <v>13731.72</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1108.55</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1202,124 +881,61 @@
       <c r="H16" t="n">
         <v>403.91268</v>
       </c>
-      <c r="I16" t="n">
-        <v>206.72</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1768.47166</v>
-      </c>
-      <c r="K16" t="n">
-        <v>707.3117099999999</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6708.80063</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2954.52557</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5794.76599</v>
-      </c>
-      <c r="O16" t="n">
-        <v>403.91268</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2007年B</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>509.9</v>
+        <v>876.36</v>
       </c>
       <c r="C17" t="n">
-        <v>4901.48</v>
+        <v>8221.666450000001</v>
       </c>
       <c r="D17" t="n">
-        <v>1791.72</v>
+        <v>2926.46819</v>
       </c>
       <c r="E17" t="n">
-        <v>18212.85</v>
+        <v>30582.23861</v>
       </c>
       <c r="F17" t="n">
-        <v>7945.61</v>
+        <v>14724.18595</v>
       </c>
       <c r="G17" t="n">
-        <v>15911.23</v>
+        <v>26779.40781</v>
       </c>
       <c r="H17" t="n">
-        <v>984.91</v>
-      </c>
-      <c r="I17" t="n">
-        <v>303.1799999999999</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3133.008339999999</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1084.40829</v>
-      </c>
-      <c r="L17" t="n">
-        <v>11504.04937</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4991.08443</v>
-      </c>
-      <c r="N17" t="n">
-        <v>10116.46401</v>
-      </c>
-      <c r="O17" t="n">
-        <v>580.9973199999999</v>
+        <v>1703.47679</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2007年C</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>876.36</v>
+        <v>509.9</v>
       </c>
       <c r="C18" t="n">
-        <v>8221.666450000001</v>
+        <v>4901.48</v>
       </c>
       <c r="D18" t="n">
-        <v>2926.46819</v>
+        <v>1791.72</v>
       </c>
       <c r="E18" t="n">
-        <v>30582.23861</v>
+        <v>18212.85</v>
       </c>
       <c r="F18" t="n">
-        <v>14724.18595</v>
+        <v>7945.61</v>
       </c>
       <c r="G18" t="n">
-        <v>26779.40781</v>
+        <v>15911.23</v>
       </c>
       <c r="H18" t="n">
-        <v>1703.47679</v>
-      </c>
-      <c r="I18" t="n">
-        <v>366.46</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3320.186450000001</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1134.74819</v>
-      </c>
-      <c r="L18" t="n">
-        <v>12369.38861</v>
-      </c>
-      <c r="M18" t="n">
-        <v>6778.575949999999</v>
-      </c>
-      <c r="N18" t="n">
-        <v>10868.17781</v>
-      </c>
-      <c r="O18" t="n">
-        <v>718.56679</v>
+        <v>984.91</v>
       </c>
     </row>
     <row r="19">
@@ -1349,27 +965,6 @@
       <c r="H19" t="n">
         <v>2921.87675</v>
       </c>
-      <c r="I19" t="n">
-        <v>604.3000000000001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5002.57121</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2010.44549</v>
-      </c>
-      <c r="L19" t="n">
-        <v>19436.38496</v>
-      </c>
-      <c r="M19" t="n">
-        <v>16120.6995</v>
-      </c>
-      <c r="N19" t="n">
-        <v>16821.63812</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1218.39996</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1398,124 +993,61 @@
       <c r="H20" t="n">
         <v>500.87</v>
       </c>
-      <c r="I20" t="n">
-        <v>244.67</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2289.86</v>
-      </c>
-      <c r="K20" t="n">
-        <v>831.16</v>
-      </c>
-      <c r="L20" t="n">
-        <v>8347.030000000001</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3718.21</v>
-      </c>
-      <c r="N20" t="n">
-        <v>7271.2</v>
-      </c>
-      <c r="O20" t="n">
-        <v>500.87</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008年B</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>589.08</v>
+        <v>997.9400000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>6378.68</v>
+        <v>10535.12</v>
       </c>
       <c r="D21" t="n">
-        <v>2132.44</v>
+        <v>3543.55</v>
       </c>
       <c r="E21" t="n">
-        <v>22664.53</v>
+        <v>37552.37</v>
       </c>
       <c r="F21" t="n">
-        <v>9928.85</v>
+        <v>17308.1</v>
       </c>
       <c r="G21" t="n">
-        <v>19943.01</v>
+        <v>33010.87</v>
       </c>
       <c r="H21" t="n">
-        <v>1273.7</v>
-      </c>
-      <c r="I21" t="n">
-        <v>344.4100000000001</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4088.82</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1301.28</v>
-      </c>
-      <c r="L21" t="n">
-        <v>14317.5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>6210.64</v>
-      </c>
-      <c r="N21" t="n">
-        <v>12671.81</v>
-      </c>
-      <c r="O21" t="n">
-        <v>772.83</v>
+        <v>1981.11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008年C</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>997.9400000000001</v>
+        <v>589.08</v>
       </c>
       <c r="C22" t="n">
-        <v>10535.12</v>
+        <v>6378.68</v>
       </c>
       <c r="D22" t="n">
-        <v>3543.55</v>
+        <v>2132.44</v>
       </c>
       <c r="E22" t="n">
-        <v>37552.37</v>
+        <v>22664.53</v>
       </c>
       <c r="F22" t="n">
-        <v>17308.1</v>
+        <v>9928.85</v>
       </c>
       <c r="G22" t="n">
-        <v>33010.87</v>
+        <v>19943.01</v>
       </c>
       <c r="H22" t="n">
-        <v>1981.11</v>
-      </c>
-      <c r="I22" t="n">
-        <v>408.86</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4156.440000000001</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1411.11</v>
-      </c>
-      <c r="L22" t="n">
-        <v>14887.84</v>
-      </c>
-      <c r="M22" t="n">
-        <v>7379.249999999998</v>
-      </c>
-      <c r="N22" t="n">
-        <v>13067.86</v>
-      </c>
-      <c r="O22" t="n">
-        <v>707.4099999999999</v>
+        <v>1273.7</v>
       </c>
     </row>
     <row r="23">
@@ -1545,27 +1077,6 @@
       <c r="H23" t="n">
         <v>3345.97</v>
       </c>
-      <c r="I23" t="n">
-        <v>737.1599999999999</v>
-      </c>
-      <c r="J23" t="n">
-        <v>6371.479999999998</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2448.389999999999</v>
-      </c>
-      <c r="L23" t="n">
-        <v>23591.89</v>
-      </c>
-      <c r="M23" t="n">
-        <v>18608.96</v>
-      </c>
-      <c r="N23" t="n">
-        <v>20406.35</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1364.86</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1594,124 +1105,61 @@
       <c r="H24" t="n">
         <v>539.74</v>
       </c>
-      <c r="I24" t="n">
-        <v>304.01</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2976.3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>996.54</v>
-      </c>
-      <c r="L24" t="n">
-        <v>10116.62</v>
-      </c>
-      <c r="M24" t="n">
-        <v>4446.81</v>
-      </c>
-      <c r="N24" t="n">
-        <v>8816.08</v>
-      </c>
-      <c r="O24" t="n">
-        <v>539.74</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>786.2</v>
+        <v>1343.3</v>
       </c>
       <c r="C25" t="n">
-        <v>8191.67</v>
+        <v>13759.82</v>
       </c>
       <c r="D25" t="n">
-        <v>2527.8</v>
+        <v>4253.2</v>
       </c>
       <c r="E25" t="n">
-        <v>27502.2</v>
+        <v>46518.27</v>
       </c>
       <c r="F25" t="n">
-        <v>11879.88</v>
+        <v>21181.56</v>
       </c>
       <c r="G25" t="n">
-        <v>24188.1</v>
+        <v>40921.8</v>
       </c>
       <c r="H25" t="n">
-        <v>1367.5</v>
-      </c>
-      <c r="I25" t="n">
-        <v>482.1900000000001</v>
-      </c>
-      <c r="J25" t="n">
-        <v>5215.37</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1531.26</v>
-      </c>
-      <c r="L25" t="n">
-        <v>17385.58</v>
-      </c>
-      <c r="M25" t="n">
-        <v>7433.069999999999</v>
-      </c>
-      <c r="N25" t="n">
-        <v>15372.02</v>
-      </c>
-      <c r="O25" t="n">
-        <v>827.76</v>
+        <v>2401.21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1343.3</v>
+        <v>786.2</v>
       </c>
       <c r="C26" t="n">
-        <v>13759.82</v>
+        <v>8191.67</v>
       </c>
       <c r="D26" t="n">
-        <v>4253.2</v>
+        <v>2527.8</v>
       </c>
       <c r="E26" t="n">
-        <v>46518.27</v>
+        <v>27502.2</v>
       </c>
       <c r="F26" t="n">
-        <v>21181.56</v>
+        <v>11879.88</v>
       </c>
       <c r="G26" t="n">
-        <v>40921.8</v>
+        <v>24188.1</v>
       </c>
       <c r="H26" t="n">
-        <v>2401.21</v>
-      </c>
-      <c r="I26" t="n">
-        <v>557.0999999999999</v>
-      </c>
-      <c r="J26" t="n">
-        <v>5568.15</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1725.4</v>
-      </c>
-      <c r="L26" t="n">
-        <v>19016.07</v>
-      </c>
-      <c r="M26" t="n">
-        <v>9301.680000000002</v>
-      </c>
-      <c r="N26" t="n">
-        <v>16733.7</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1033.71</v>
+        <v>1367.5</v>
       </c>
     </row>
     <row r="27">
@@ -1741,27 +1189,6 @@
       <c r="H27" t="n">
         <v>4142.25</v>
       </c>
-      <c r="I27" t="n">
-        <v>860.7</v>
-      </c>
-      <c r="J27" t="n">
-        <v>8710.119999999999</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2768.5</v>
-      </c>
-      <c r="L27" t="n">
-        <v>29345.51</v>
-      </c>
-      <c r="M27" t="n">
-        <v>22616.1</v>
-      </c>
-      <c r="N27" t="n">
-        <v>25716.3</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1741.04</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1790,124 +1217,61 @@
       <c r="H28" t="n">
         <v>707.8099999999999</v>
       </c>
-      <c r="I28" t="n">
-        <v>376.6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3874.83</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1148.4</v>
-      </c>
-      <c r="L28" t="n">
-        <v>12706.9</v>
-      </c>
-      <c r="M28" t="n">
-        <v>5623.2</v>
-      </c>
-      <c r="N28" t="n">
-        <v>11182</v>
-      </c>
-      <c r="O28" t="n">
-        <v>707.8099999999999</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>974.7</v>
+        <v>1632.12</v>
       </c>
       <c r="C29" t="n">
-        <v>10640.89</v>
+        <v>18025.93</v>
       </c>
       <c r="D29" t="n">
-        <v>2976.8</v>
+        <v>4935.1</v>
       </c>
       <c r="E29" t="n">
-        <v>34193.4</v>
+        <v>57626.54</v>
       </c>
       <c r="F29" t="n">
-        <v>14733.7</v>
+        <v>25732.97</v>
       </c>
       <c r="G29" t="n">
-        <v>30241.9</v>
+        <v>51059.32</v>
       </c>
       <c r="H29" t="n">
-        <v>1827.44</v>
-      </c>
-      <c r="I29" t="n">
-        <v>598.1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>6766.059999999999</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1828.4</v>
-      </c>
-      <c r="L29" t="n">
-        <v>21486.5</v>
-      </c>
-      <c r="M29" t="n">
-        <v>9110.5</v>
-      </c>
-      <c r="N29" t="n">
-        <v>19059.9</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1119.63</v>
+        <v>3026.09</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1632.12</v>
+        <v>974.7</v>
       </c>
       <c r="C30" t="n">
-        <v>18025.93</v>
+        <v>10640.89</v>
       </c>
       <c r="D30" t="n">
-        <v>4935.1</v>
+        <v>2976.8</v>
       </c>
       <c r="E30" t="n">
-        <v>57626.54</v>
+        <v>34193.4</v>
       </c>
       <c r="F30" t="n">
-        <v>25732.97</v>
+        <v>14733.7</v>
       </c>
       <c r="G30" t="n">
-        <v>51059.32</v>
+        <v>30241.9</v>
       </c>
       <c r="H30" t="n">
-        <v>3026.09</v>
-      </c>
-      <c r="I30" t="n">
-        <v>657.4199999999998</v>
-      </c>
-      <c r="J30" t="n">
-        <v>7385.040000000001</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1958.3</v>
-      </c>
-      <c r="L30" t="n">
-        <v>23433.14</v>
-      </c>
-      <c r="M30" t="n">
-        <v>10999.27</v>
-      </c>
-      <c r="N30" t="n">
-        <v>20817.42</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1198.65</v>
+        <v>1827.44</v>
       </c>
     </row>
     <row r="31">
@@ -1937,27 +1301,6 @@
       <c r="H31" t="n">
         <v>5156.97</v>
       </c>
-      <c r="I31" t="n">
-        <v>1066.36</v>
-      </c>
-      <c r="J31" t="n">
-        <v>11199.3</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3331.609999999999</v>
-      </c>
-      <c r="L31" t="n">
-        <v>37579.28000000001</v>
-      </c>
-      <c r="M31" t="n">
-        <v>27247.95</v>
-      </c>
-      <c r="N31" t="n">
-        <v>33181.31</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2130.88</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1986,124 +1329,61 @@
       <c r="H32" t="n">
         <v>887.98</v>
       </c>
-      <c r="I32" t="n">
-        <v>471.18</v>
-      </c>
-      <c r="J32" t="n">
-        <v>5005.81</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1405.24</v>
-      </c>
-      <c r="L32" t="n">
-        <v>16096.38</v>
-      </c>
-      <c r="M32" t="n">
-        <v>6857.32</v>
-      </c>
-      <c r="N32" t="n">
-        <v>14219.95</v>
-      </c>
-      <c r="O32" t="n">
-        <v>887.98</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1163.47</v>
+        <v>1936.95</v>
       </c>
       <c r="C33" t="n">
-        <v>13440.55</v>
+        <v>22430.62</v>
       </c>
       <c r="D33" t="n">
-        <v>3542.16</v>
+        <v>5787.06</v>
       </c>
       <c r="E33" t="n">
-        <v>43110.89</v>
+        <v>72465.67</v>
       </c>
       <c r="F33" t="n">
-        <v>17439.54</v>
+        <v>30958.14</v>
       </c>
       <c r="G33" t="n">
-        <v>38405.26</v>
+        <v>64741.67</v>
       </c>
       <c r="H33" t="n">
-        <v>2347.89</v>
-      </c>
-      <c r="I33" t="n">
-        <v>692.29</v>
-      </c>
-      <c r="J33" t="n">
-        <v>8434.739999999998</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2136.92</v>
-      </c>
-      <c r="L33" t="n">
-        <v>27014.51</v>
-      </c>
-      <c r="M33" t="n">
-        <v>10582.22</v>
-      </c>
-      <c r="N33" t="n">
-        <v>24185.31</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1459.91</v>
+        <v>3920.35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1936.95</v>
+        <v>1163.47</v>
       </c>
       <c r="C34" t="n">
-        <v>22430.62</v>
+        <v>13440.55</v>
       </c>
       <c r="D34" t="n">
-        <v>5787.06</v>
+        <v>3542.16</v>
       </c>
       <c r="E34" t="n">
-        <v>72465.67</v>
+        <v>43110.89</v>
       </c>
       <c r="F34" t="n">
-        <v>30958.14</v>
+        <v>17439.54</v>
       </c>
       <c r="G34" t="n">
-        <v>64741.67</v>
+        <v>38405.26</v>
       </c>
       <c r="H34" t="n">
-        <v>3920.35</v>
-      </c>
-      <c r="I34" t="n">
-        <v>773.48</v>
-      </c>
-      <c r="J34" t="n">
-        <v>8990.07</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2244.900000000001</v>
-      </c>
-      <c r="L34" t="n">
-        <v>29354.78</v>
-      </c>
-      <c r="M34" t="n">
-        <v>13518.6</v>
-      </c>
-      <c r="N34" t="n">
-        <v>26336.41</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1572.46</v>
+        <v>2347.89</v>
       </c>
     </row>
     <row r="35">
@@ -2133,27 +1413,6 @@
       <c r="H35" t="n">
         <v>6629.37</v>
       </c>
-      <c r="I35" t="n">
-        <v>1325.86</v>
-      </c>
-      <c r="J35" t="n">
-        <v>12905</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3779.849999999999</v>
-      </c>
-      <c r="L35" t="n">
-        <v>45268.49000000001</v>
-      </c>
-      <c r="M35" t="n">
-        <v>31066.27</v>
-      </c>
-      <c r="N35" t="n">
-        <v>40162.77</v>
-      </c>
-      <c r="O35" t="n">
-        <v>2709.02</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2182,124 +1441,61 @@
       <c r="H36" t="n">
         <v>1113.97</v>
       </c>
-      <c r="I36" t="n">
-        <v>569.28</v>
-      </c>
-      <c r="J36" t="n">
-        <v>5734.06</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1654.85</v>
-      </c>
-      <c r="L36" t="n">
-        <v>18830.64</v>
-      </c>
-      <c r="M36" t="n">
-        <v>8302.959999999999</v>
-      </c>
-      <c r="N36" t="n">
-        <v>16606.52</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1113.97</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1433.53</v>
+        <v>2399.46</v>
       </c>
       <c r="C37" t="n">
-        <v>15948.91</v>
+        <v>26771.34</v>
       </c>
       <c r="D37" t="n">
-        <v>4160.13</v>
+        <v>6868.77</v>
       </c>
       <c r="E37" t="n">
-        <v>50459.69</v>
+        <v>85243.24000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>21332.03</v>
+        <v>37661.94</v>
       </c>
       <c r="G37" t="n">
-        <v>44866.04</v>
+        <v>75975.00999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>2835</v>
-      </c>
-      <c r="I37" t="n">
-        <v>864.25</v>
-      </c>
-      <c r="J37" t="n">
-        <v>10214.85</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2505.28</v>
-      </c>
-      <c r="L37" t="n">
-        <v>31629.05</v>
-      </c>
-      <c r="M37" t="n">
-        <v>13029.07</v>
-      </c>
-      <c r="N37" t="n">
-        <v>28259.52</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1721.03</v>
+        <v>4833.95</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2399.46</v>
+        <v>1433.53</v>
       </c>
       <c r="C38" t="n">
-        <v>26771.34</v>
+        <v>15948.91</v>
       </c>
       <c r="D38" t="n">
-        <v>6868.77</v>
+        <v>4160.13</v>
       </c>
       <c r="E38" t="n">
-        <v>85243.24000000001</v>
+        <v>50459.69</v>
       </c>
       <c r="F38" t="n">
-        <v>37661.94</v>
+        <v>21332.03</v>
       </c>
       <c r="G38" t="n">
-        <v>75975.00999999999</v>
+        <v>44866.04</v>
       </c>
       <c r="H38" t="n">
-        <v>4833.95</v>
-      </c>
-      <c r="I38" t="n">
-        <v>965.9300000000001</v>
-      </c>
-      <c r="J38" t="n">
-        <v>10822.43</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2708.64</v>
-      </c>
-      <c r="L38" t="n">
-        <v>34783.55</v>
-      </c>
-      <c r="M38" t="n">
-        <v>16329.91</v>
-      </c>
-      <c r="N38" t="n">
-        <v>31108.96999999999</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1998.95</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="39">
@@ -2329,27 +1525,6 @@
       <c r="H39" t="n">
         <v>7853.91</v>
       </c>
-      <c r="I39" t="n">
-        <v>1658.05</v>
-      </c>
-      <c r="J39" t="n">
-        <v>15625.79</v>
-      </c>
-      <c r="K39" t="n">
-        <v>4128.73</v>
-      </c>
-      <c r="L39" t="n">
-        <v>50060.09999999999</v>
-      </c>
-      <c r="M39" t="n">
-        <v>37841.67999999999</v>
-      </c>
-      <c r="N39" t="n">
-        <v>44273.32000000001</v>
-      </c>
-      <c r="O39" t="n">
-        <v>3019.96</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2378,124 +1553,61 @@
       <c r="H40" t="n">
         <v>1429.9</v>
       </c>
-      <c r="I40" t="n">
-        <v>687.65</v>
-      </c>
-      <c r="J40" t="n">
-        <v>6828.58</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2002.44</v>
-      </c>
-      <c r="L40" t="n">
-        <v>22633.85</v>
-      </c>
-      <c r="M40" t="n">
-        <v>10423.76</v>
-      </c>
-      <c r="N40" t="n">
-        <v>19943.76</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1429.9</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1687.23</v>
+        <v>2918.41</v>
       </c>
       <c r="C41" t="n">
-        <v>19307.12</v>
+        <v>32487.81</v>
       </c>
       <c r="D41" t="n">
-        <v>4997.78</v>
+        <v>8216.549999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>60177.11</v>
+        <v>101498.21</v>
       </c>
       <c r="F41" t="n">
-        <v>26613.17</v>
+        <v>45827.04</v>
       </c>
       <c r="G41" t="n">
-        <v>53492.1</v>
+        <v>90363.25999999999</v>
       </c>
       <c r="H41" t="n">
-        <v>3515.19</v>
-      </c>
-      <c r="I41" t="n">
-        <v>999.58</v>
-      </c>
-      <c r="J41" t="n">
-        <v>12478.54</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2995.34</v>
-      </c>
-      <c r="L41" t="n">
-        <v>37543.26</v>
-      </c>
-      <c r="M41" t="n">
-        <v>16189.41</v>
-      </c>
-      <c r="N41" t="n">
-        <v>33548.34</v>
-      </c>
-      <c r="O41" t="n">
-        <v>2085.29</v>
+        <v>5841.32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2918.41</v>
+        <v>1687.23</v>
       </c>
       <c r="C42" t="n">
-        <v>32487.81</v>
+        <v>19307.12</v>
       </c>
       <c r="D42" t="n">
-        <v>8216.549999999999</v>
+        <v>4997.78</v>
       </c>
       <c r="E42" t="n">
-        <v>101498.21</v>
+        <v>60177.11</v>
       </c>
       <c r="F42" t="n">
-        <v>45827.04</v>
+        <v>26613.17</v>
       </c>
       <c r="G42" t="n">
-        <v>90363.25999999999</v>
+        <v>53492.1</v>
       </c>
       <c r="H42" t="n">
-        <v>5841.32</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1231.18</v>
-      </c>
-      <c r="J42" t="n">
-        <v>13180.69</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3218.77</v>
-      </c>
-      <c r="L42" t="n">
-        <v>41321.10000000001</v>
-      </c>
-      <c r="M42" t="n">
-        <v>19213.87</v>
-      </c>
-      <c r="N42" t="n">
-        <v>36871.16</v>
-      </c>
-      <c r="O42" t="n">
-        <v>2326.13</v>
+        <v>3515.19</v>
       </c>
     </row>
     <row r="43">
@@ -2525,27 +1637,6 @@
       <c r="H43" t="n">
         <v>9434</v>
       </c>
-      <c r="I43" t="n">
-        <v>1892.51</v>
-      </c>
-      <c r="J43" t="n">
-        <v>17705.07</v>
-      </c>
-      <c r="K43" t="n">
-        <v>5138.650000000001</v>
-      </c>
-      <c r="L43" t="n">
-        <v>57814.74000000001</v>
-      </c>
-      <c r="M43" t="n">
-        <v>44371.60999999999</v>
-      </c>
-      <c r="N43" t="n">
-        <v>50783.56999999999</v>
-      </c>
-      <c r="O43" t="n">
-        <v>3592.68</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2574,124 +1665,61 @@
       <c r="H44" t="n">
         <v>1640.48</v>
       </c>
-      <c r="I44" t="n">
-        <v>826.4299999999999</v>
-      </c>
-      <c r="J44" t="n">
-        <v>8266.610000000001</v>
-      </c>
-      <c r="K44" t="n">
-        <v>2302.13</v>
-      </c>
-      <c r="L44" t="n">
-        <v>26238.12</v>
-      </c>
-      <c r="M44" t="n">
-        <v>12095.96</v>
-      </c>
-      <c r="N44" t="n">
-        <v>23109.55</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1640.48</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2002.97</v>
+        <v>3260.01</v>
       </c>
       <c r="C45" t="n">
-        <v>22160.32</v>
+        <v>37370.24</v>
       </c>
       <c r="D45" t="n">
-        <v>5628.2</v>
+        <v>9090.440000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>69399.7</v>
+        <v>115247.52</v>
       </c>
       <c r="F45" t="n">
-        <v>30753.21</v>
+        <v>52288.32</v>
       </c>
       <c r="G45" t="n">
-        <v>61768.53</v>
+        <v>102897.06</v>
       </c>
       <c r="H45" t="n">
-        <v>3995.39</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1176.54</v>
-      </c>
-      <c r="J45" t="n">
-        <v>13893.71</v>
-      </c>
-      <c r="K45" t="n">
-        <v>3326.07</v>
-      </c>
-      <c r="L45" t="n">
-        <v>43161.58</v>
-      </c>
-      <c r="M45" t="n">
-        <v>18657.25</v>
-      </c>
-      <c r="N45" t="n">
-        <v>38658.98</v>
-      </c>
-      <c r="O45" t="n">
-        <v>2354.91</v>
+        <v>6549.31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3260.01</v>
+        <v>2002.97</v>
       </c>
       <c r="C46" t="n">
-        <v>37370.24</v>
+        <v>22160.32</v>
       </c>
       <c r="D46" t="n">
-        <v>9090.440000000001</v>
+        <v>5628.2</v>
       </c>
       <c r="E46" t="n">
-        <v>115247.52</v>
+        <v>69399.7</v>
       </c>
       <c r="F46" t="n">
-        <v>52288.32</v>
+        <v>30753.21</v>
       </c>
       <c r="G46" t="n">
-        <v>102897.06</v>
+        <v>61768.53</v>
       </c>
       <c r="H46" t="n">
-        <v>6549.31</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1257.04</v>
-      </c>
-      <c r="J46" t="n">
-        <v>15209.92</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3462.240000000001</v>
-      </c>
-      <c r="L46" t="n">
-        <v>45847.82000000001</v>
-      </c>
-      <c r="M46" t="n">
-        <v>21535.11</v>
-      </c>
-      <c r="N46" t="n">
-        <v>41128.53</v>
-      </c>
-      <c r="O46" t="n">
-        <v>2553.920000000001</v>
+        <v>3995.39</v>
       </c>
     </row>
     <row r="47">
@@ -2721,27 +1749,6 @@
       <c r="H47" t="n">
         <v>10373.1</v>
       </c>
-      <c r="I47" t="n">
-        <v>2051.09</v>
-      </c>
-      <c r="J47" t="n">
-        <v>19897.11</v>
-      </c>
-      <c r="K47" t="n">
-        <v>5169.35</v>
-      </c>
-      <c r="L47" t="n">
-        <v>61465.87999999999</v>
-      </c>
-      <c r="M47" t="n">
-        <v>48431.19</v>
-      </c>
-      <c r="N47" t="n">
-        <v>54245.45000000001</v>
-      </c>
-      <c r="O47" t="n">
-        <v>3823.79</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2770,124 +1777,61 @@
       <c r="H48" t="n">
         <v>1773.66</v>
       </c>
-      <c r="I48" t="n">
-        <v>909.45</v>
-      </c>
-      <c r="J48" t="n">
-        <v>9189.93</v>
-      </c>
-      <c r="K48" t="n">
-        <v>2550.38</v>
-      </c>
-      <c r="L48" t="n">
-        <v>28895.36</v>
-      </c>
-      <c r="M48" t="n">
-        <v>14281.96</v>
-      </c>
-      <c r="N48" t="n">
-        <v>25435.52</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1773.66</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2083.78</v>
+        <v>3339.98</v>
       </c>
       <c r="C49" t="n">
-        <v>23581.08</v>
+        <v>39015.9</v>
       </c>
       <c r="D49" t="n">
-        <v>5863.07</v>
+        <v>9497.74</v>
       </c>
       <c r="E49" t="n">
-        <v>72374.42999999999</v>
+        <v>117947.3</v>
       </c>
       <c r="F49" t="n">
-        <v>34465.24</v>
+        <v>58420.31</v>
       </c>
       <c r="G49" t="n">
-        <v>64427.58</v>
+        <v>105109.57</v>
       </c>
       <c r="H49" t="n">
-        <v>4114.49</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1174.33</v>
-      </c>
-      <c r="J49" t="n">
-        <v>14391.15</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3312.69</v>
-      </c>
-      <c r="L49" t="n">
-        <v>43479.06999999999</v>
-      </c>
-      <c r="M49" t="n">
-        <v>20183.28</v>
-      </c>
-      <c r="N49" t="n">
-        <v>38992.06</v>
-      </c>
-      <c r="O49" t="n">
-        <v>2340.83</v>
+        <v>6640.06</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3339.98</v>
+        <v>2083.78</v>
       </c>
       <c r="C50" t="n">
-        <v>39015.9</v>
+        <v>23581.08</v>
       </c>
       <c r="D50" t="n">
-        <v>9497.74</v>
+        <v>5863.07</v>
       </c>
       <c r="E50" t="n">
-        <v>117947.3</v>
+        <v>72374.42999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>58420.31</v>
+        <v>34465.24</v>
       </c>
       <c r="G50" t="n">
-        <v>105109.57</v>
+        <v>64427.58</v>
       </c>
       <c r="H50" t="n">
-        <v>6640.06</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1256.2</v>
-      </c>
-      <c r="J50" t="n">
-        <v>15434.82</v>
-      </c>
-      <c r="K50" t="n">
-        <v>3634.67</v>
-      </c>
-      <c r="L50" t="n">
-        <v>45572.87000000001</v>
-      </c>
-      <c r="M50" t="n">
-        <v>23955.07</v>
-      </c>
-      <c r="N50" t="n">
-        <v>40681.99000000001</v>
-      </c>
-      <c r="O50" t="n">
-        <v>2525.570000000001</v>
+        <v>4114.49</v>
       </c>
     </row>
     <row r="51">
@@ -2917,27 +1861,6 @@
       <c r="H51" t="n">
         <v>10508.05</v>
       </c>
-      <c r="I51" t="n">
-        <v>2157.8</v>
-      </c>
-      <c r="J51" t="n">
-        <v>21187.64</v>
-      </c>
-      <c r="K51" t="n">
-        <v>5484.74</v>
-      </c>
-      <c r="L51" t="n">
-        <v>62810.17</v>
-      </c>
-      <c r="M51" t="n">
-        <v>51695.62</v>
-      </c>
-      <c r="N51" t="n">
-        <v>55167.63999999998</v>
-      </c>
-      <c r="O51" t="n">
-        <v>3867.989999999999</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2966,124 +1889,61 @@
       <c r="H52" t="n">
         <v>1917.51</v>
       </c>
-      <c r="I52" t="n">
-        <v>962.41</v>
-      </c>
-      <c r="J52" t="n">
-        <v>9604.82</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2766.16</v>
-      </c>
-      <c r="L52" t="n">
-        <v>30849.97</v>
-      </c>
-      <c r="M52" t="n">
-        <v>15877.61</v>
-      </c>
-      <c r="N52" t="n">
-        <v>27121.4</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1917.51</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2338.09</v>
+        <v>3705</v>
       </c>
       <c r="C53" t="n">
-        <v>25673.15</v>
+        <v>42535.52</v>
       </c>
       <c r="D53" t="n">
-        <v>6422.63</v>
+        <v>10162.6</v>
       </c>
       <c r="E53" t="n">
-        <v>77461.75</v>
+        <v>125791.6</v>
       </c>
       <c r="F53" t="n">
-        <v>37382.35</v>
+        <v>60868.58</v>
       </c>
       <c r="G53" t="n">
-        <v>68701.03</v>
+        <v>111924</v>
       </c>
       <c r="H53" t="n">
-        <v>4446.43</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1375.68</v>
-      </c>
-      <c r="J53" t="n">
-        <v>16068.33</v>
-      </c>
-      <c r="K53" t="n">
-        <v>3656.47</v>
-      </c>
-      <c r="L53" t="n">
-        <v>46611.78</v>
-      </c>
-      <c r="M53" t="n">
-        <v>21504.74</v>
-      </c>
-      <c r="N53" t="n">
-        <v>41579.63</v>
-      </c>
-      <c r="O53" t="n">
-        <v>2528.92</v>
+        <v>7153.13</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3705</v>
+        <v>2338.09</v>
       </c>
       <c r="C54" t="n">
-        <v>42535.52</v>
+        <v>25673.15</v>
       </c>
       <c r="D54" t="n">
-        <v>10162.6</v>
+        <v>6422.63</v>
       </c>
       <c r="E54" t="n">
-        <v>125791.6</v>
+        <v>77461.75</v>
       </c>
       <c r="F54" t="n">
-        <v>60868.58</v>
+        <v>37382.35</v>
       </c>
       <c r="G54" t="n">
-        <v>111924</v>
+        <v>68701.03</v>
       </c>
       <c r="H54" t="n">
-        <v>7153.13</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1366.91</v>
-      </c>
-      <c r="J54" t="n">
-        <v>16862.37</v>
-      </c>
-      <c r="K54" t="n">
-        <v>3739.97</v>
-      </c>
-      <c r="L54" t="n">
-        <v>48329.85000000001</v>
-      </c>
-      <c r="M54" t="n">
-        <v>23486.23</v>
-      </c>
-      <c r="N54" t="n">
-        <v>43222.97</v>
-      </c>
-      <c r="O54" t="n">
-        <v>2706.7</v>
+        <v>4446.43</v>
       </c>
     </row>
     <row r="55">
@@ -3113,27 +1973,6 @@
       <c r="H55" t="n">
         <v>11295.16</v>
       </c>
-      <c r="I55" t="n">
-        <v>2222.55</v>
-      </c>
-      <c r="J55" t="n">
-        <v>23918.13</v>
-      </c>
-      <c r="K55" t="n">
-        <v>5612.4</v>
-      </c>
-      <c r="L55" t="n">
-        <v>67775.17999999999</v>
-      </c>
-      <c r="M55" t="n">
-        <v>52024.02</v>
-      </c>
-      <c r="N55" t="n">
-        <v>59940.23000000001</v>
-      </c>
-      <c r="O55" t="n">
-        <v>4142.03</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -3162,124 +2001,61 @@
       <c r="H56" t="n">
         <v>2058.72</v>
       </c>
-      <c r="I56" t="n">
-        <v>1132.71</v>
-      </c>
-      <c r="J56" t="n">
-        <v>10864.08</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3025.09</v>
-      </c>
-      <c r="L56" t="n">
-        <v>34188.67</v>
-      </c>
-      <c r="M56" t="n">
-        <v>16798.37</v>
-      </c>
-      <c r="N56" t="n">
-        <v>30030.88</v>
-      </c>
-      <c r="O56" t="n">
-        <v>2058.72</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2676.24</v>
+        <v>4276.86</v>
       </c>
       <c r="C57" t="n">
-        <v>29403.79</v>
+        <v>48049.8</v>
       </c>
       <c r="D57" t="n">
-        <v>7072.8</v>
+        <v>11442.49</v>
       </c>
       <c r="E57" t="n">
-        <v>85871.09</v>
+        <v>139259.73</v>
       </c>
       <c r="F57" t="n">
-        <v>39192.28</v>
+        <v>64354.83</v>
       </c>
       <c r="G57" t="n">
-        <v>76122.06</v>
+        <v>123540.37</v>
       </c>
       <c r="H57" t="n">
-        <v>4793.18</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1543.53</v>
-      </c>
-      <c r="J57" t="n">
-        <v>18539.71</v>
-      </c>
-      <c r="K57" t="n">
-        <v>4047.71</v>
-      </c>
-      <c r="L57" t="n">
-        <v>51682.42</v>
-      </c>
-      <c r="M57" t="n">
-        <v>22393.91</v>
-      </c>
-      <c r="N57" t="n">
-        <v>46091.17999999999</v>
-      </c>
-      <c r="O57" t="n">
-        <v>2734.46</v>
+        <v>7623.38</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4276.86</v>
+        <v>2676.24</v>
       </c>
       <c r="C58" t="n">
-        <v>48049.8</v>
+        <v>29403.79</v>
       </c>
       <c r="D58" t="n">
-        <v>11442.49</v>
+        <v>7072.8</v>
       </c>
       <c r="E58" t="n">
-        <v>139259.73</v>
+        <v>85871.09</v>
       </c>
       <c r="F58" t="n">
-        <v>64354.83</v>
+        <v>39192.28</v>
       </c>
       <c r="G58" t="n">
-        <v>123540.37</v>
+        <v>76122.06</v>
       </c>
       <c r="H58" t="n">
-        <v>7623.38</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1600.62</v>
-      </c>
-      <c r="J58" t="n">
-        <v>18646.01</v>
-      </c>
-      <c r="K58" t="n">
-        <v>4369.69</v>
-      </c>
-      <c r="L58" t="n">
-        <v>53388.64000000001</v>
-      </c>
-      <c r="M58" t="n">
-        <v>25162.55</v>
-      </c>
-      <c r="N58" t="n">
-        <v>47418.31</v>
-      </c>
-      <c r="O58" t="n">
-        <v>2830.2</v>
+        <v>4793.18</v>
       </c>
     </row>
     <row r="59">
@@ -3309,27 +2085,6 @@
       <c r="H59" t="n">
         <v>12017.27</v>
       </c>
-      <c r="I59" t="n">
-        <v>2615.860000000001</v>
-      </c>
-      <c r="J59" t="n">
-        <v>26339.95999999999</v>
-      </c>
-      <c r="K59" t="n">
-        <v>6457.730000000001</v>
-      </c>
-      <c r="L59" t="n">
-        <v>74694.22999999998</v>
-      </c>
-      <c r="M59" t="n">
-        <v>52437.06</v>
-      </c>
-      <c r="N59" t="n">
-        <v>65620.64999999999</v>
-      </c>
-      <c r="O59" t="n">
-        <v>4393.89</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -3358,124 +2113,61 @@
       <c r="H60" t="n">
         <v>2297.76</v>
       </c>
-      <c r="I60" t="n">
-        <v>1291.1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>12400.31</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3584.61</v>
-      </c>
-      <c r="L60" t="n">
-        <v>38691.96</v>
-      </c>
-      <c r="M60" t="n">
-        <v>18491.39</v>
-      </c>
-      <c r="N60" t="n">
-        <v>33816.25</v>
-      </c>
-      <c r="O60" t="n">
-        <v>2297.76</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3159.78</v>
+        <v>5050.5</v>
       </c>
       <c r="C61" t="n">
-        <v>33262.11</v>
+        <v>53532.31</v>
       </c>
       <c r="D61" t="n">
-        <v>7965.09</v>
+        <v>12550.59</v>
       </c>
       <c r="E61" t="n">
-        <v>94790.39</v>
+        <v>152326.24</v>
       </c>
       <c r="F61" t="n">
-        <v>40167.55</v>
+        <v>65581.92</v>
       </c>
       <c r="G61" t="n">
-        <v>83665.52</v>
+        <v>134725.14</v>
       </c>
       <c r="H61" t="n">
-        <v>5186.18</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1868.68</v>
-      </c>
-      <c r="J61" t="n">
-        <v>20861.8</v>
-      </c>
-      <c r="K61" t="n">
-        <v>4380.48</v>
-      </c>
-      <c r="L61" t="n">
-        <v>56098.43</v>
-      </c>
-      <c r="M61" t="n">
-        <v>21676.16</v>
-      </c>
-      <c r="N61" t="n">
-        <v>49849.27</v>
-      </c>
-      <c r="O61" t="n">
-        <v>2888.42</v>
+        <v>8263.59</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5050.5</v>
+        <v>3159.78</v>
       </c>
       <c r="C62" t="n">
-        <v>53532.31</v>
+        <v>33262.11</v>
       </c>
       <c r="D62" t="n">
-        <v>12550.59</v>
+        <v>7965.09</v>
       </c>
       <c r="E62" t="n">
-        <v>152326.24</v>
+        <v>94790.39</v>
       </c>
       <c r="F62" t="n">
-        <v>65581.92</v>
+        <v>40167.55</v>
       </c>
       <c r="G62" t="n">
-        <v>134725.14</v>
+        <v>83665.52</v>
       </c>
       <c r="H62" t="n">
-        <v>8263.59</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1890.72</v>
-      </c>
-      <c r="J62" t="n">
-        <v>20270.2</v>
-      </c>
-      <c r="K62" t="n">
-        <v>4585.5</v>
-      </c>
-      <c r="L62" t="n">
-        <v>57535.84999999999</v>
-      </c>
-      <c r="M62" t="n">
-        <v>25414.37</v>
-      </c>
-      <c r="N62" t="n">
-        <v>51059.62000000001</v>
-      </c>
-      <c r="O62" t="n">
-        <v>3077.41</v>
+        <v>5186.18</v>
       </c>
     </row>
     <row r="63">
@@ -3505,27 +2197,6 @@
       <c r="H63" t="n">
         <v>12949.84</v>
       </c>
-      <c r="I63" t="n">
-        <v>2818.41</v>
-      </c>
-      <c r="J63" t="n">
-        <v>28623.39</v>
-      </c>
-      <c r="K63" t="n">
-        <v>7079.57</v>
-      </c>
-      <c r="L63" t="n">
-        <v>82759.29000000001</v>
-      </c>
-      <c r="M63" t="n">
-        <v>55204.3</v>
-      </c>
-      <c r="N63" t="n">
-        <v>72861.31</v>
-      </c>
-      <c r="O63" t="n">
-        <v>4686.25</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -3554,124 +2225,61 @@
       <c r="H64" t="n">
         <v>2325.86</v>
       </c>
-      <c r="I64" t="n">
-        <v>1554.26</v>
-      </c>
-      <c r="J64" t="n">
-        <v>13801.54</v>
-      </c>
-      <c r="K64" t="n">
-        <v>3931.78</v>
-      </c>
-      <c r="L64" t="n">
-        <v>42758.39</v>
-      </c>
-      <c r="M64" t="n">
-        <v>18864.2</v>
-      </c>
-      <c r="N64" t="n">
-        <v>37272.36</v>
-      </c>
-      <c r="O64" t="n">
-        <v>2325.86</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3418.35</v>
+        <v>5150.47</v>
       </c>
       <c r="C65" t="n">
-        <v>34256.58</v>
+        <v>55301.23</v>
       </c>
       <c r="D65" t="n">
-        <v>8692.59</v>
+        <v>13672.64</v>
       </c>
       <c r="E65" t="n">
-        <v>101616.12</v>
+        <v>162467.33</v>
       </c>
       <c r="F65" t="n">
-        <v>41263.71</v>
+        <v>67241.09</v>
       </c>
       <c r="G65" t="n">
-        <v>89505.17999999999</v>
+        <v>143644.22</v>
       </c>
       <c r="H65" t="n">
-        <v>5031.66</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1864.09</v>
-      </c>
-      <c r="J65" t="n">
-        <v>20455.04</v>
-      </c>
-      <c r="K65" t="n">
-        <v>4760.809999999999</v>
-      </c>
-      <c r="L65" t="n">
-        <v>58857.73</v>
-      </c>
-      <c r="M65" t="n">
-        <v>22399.51</v>
-      </c>
-      <c r="N65" t="n">
-        <v>52232.81999999999</v>
-      </c>
-      <c r="O65" t="n">
-        <v>2705.8</v>
+        <v>7867.93</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5150.47</v>
+        <v>3418.35</v>
       </c>
       <c r="C66" t="n">
-        <v>55301.23</v>
+        <v>34256.58</v>
       </c>
       <c r="D66" t="n">
-        <v>13672.64</v>
+        <v>8692.59</v>
       </c>
       <c r="E66" t="n">
-        <v>162467.33</v>
+        <v>101616.12</v>
       </c>
       <c r="F66" t="n">
-        <v>67241.09</v>
+        <v>41263.71</v>
       </c>
       <c r="G66" t="n">
-        <v>143644.22</v>
+        <v>89505.17999999999</v>
       </c>
       <c r="H66" t="n">
-        <v>7867.93</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1732.12</v>
-      </c>
-      <c r="J66" t="n">
-        <v>21044.65</v>
-      </c>
-      <c r="K66" t="n">
-        <v>4980.049999999999</v>
-      </c>
-      <c r="L66" t="n">
-        <v>60851.20999999999</v>
-      </c>
-      <c r="M66" t="n">
-        <v>25977.38</v>
-      </c>
-      <c r="N66" t="n">
-        <v>54139.04000000001</v>
-      </c>
-      <c r="O66" t="n">
-        <v>2836.27</v>
+        <v>5031.66</v>
       </c>
     </row>
     <row r="67">
@@ -3701,27 +2309,6 @@
       <c r="H67" t="n">
         <v>12357.35</v>
       </c>
-      <c r="I67" t="n">
-        <v>3278.349999999999</v>
-      </c>
-      <c r="J67" t="n">
-        <v>28133.91</v>
-      </c>
-      <c r="K67" t="n">
-        <v>7680.150000000001</v>
-      </c>
-      <c r="L67" t="n">
-        <v>85978.44</v>
-      </c>
-      <c r="M67" t="n">
-        <v>56593.04000000001</v>
-      </c>
-      <c r="N67" t="n">
-        <v>75019.94</v>
-      </c>
-      <c r="O67" t="n">
-        <v>4489.42</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -3750,124 +2337,61 @@
       <c r="H68" t="n">
         <v>1742.24</v>
       </c>
-      <c r="I68" t="n">
-        <v>1273.78</v>
-      </c>
-      <c r="J68" t="n">
-        <v>11420.82</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3263.02</v>
-      </c>
-      <c r="L68" t="n">
-        <v>35916.59</v>
-      </c>
-      <c r="M68" t="n">
-        <v>14544.35</v>
-      </c>
-      <c r="N68" t="n">
-        <v>31379.79</v>
-      </c>
-      <c r="O68" t="n">
-        <v>1742.24</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2020年B</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3440.93</v>
+        <v>5575.72</v>
       </c>
       <c r="C69" t="n">
-        <v>34913.28</v>
+        <v>58792.68</v>
       </c>
       <c r="D69" t="n">
-        <v>8494.15</v>
+        <v>13680.05</v>
       </c>
       <c r="E69" t="n">
-        <v>100840.12</v>
+        <v>167927</v>
       </c>
       <c r="F69" t="n">
-        <v>38027.75</v>
+        <v>63454.15</v>
       </c>
       <c r="G69" t="n">
-        <v>88905.03999999999</v>
+        <v>148671.23</v>
       </c>
       <c r="H69" t="n">
-        <v>4401.27</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2167.15</v>
-      </c>
-      <c r="J69" t="n">
-        <v>23492.46</v>
-      </c>
-      <c r="K69" t="n">
-        <v>5231.129999999999</v>
-      </c>
-      <c r="L69" t="n">
-        <v>64923.53</v>
-      </c>
-      <c r="M69" t="n">
-        <v>23483.4</v>
-      </c>
-      <c r="N69" t="n">
-        <v>57525.24999999999</v>
-      </c>
-      <c r="O69" t="n">
-        <v>2659.030000000001</v>
+        <v>7158.82</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2020年C</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5575.72</v>
+        <v>3440.93</v>
       </c>
       <c r="C70" t="n">
-        <v>58792.68</v>
+        <v>34913.28</v>
       </c>
       <c r="D70" t="n">
-        <v>13680.05</v>
+        <v>8494.15</v>
       </c>
       <c r="E70" t="n">
-        <v>167927</v>
+        <v>100840.12</v>
       </c>
       <c r="F70" t="n">
-        <v>63454.15</v>
+        <v>38027.75</v>
       </c>
       <c r="G70" t="n">
-        <v>148671.23</v>
+        <v>88905.03999999999</v>
       </c>
       <c r="H70" t="n">
-        <v>7158.82</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2134.79</v>
-      </c>
-      <c r="J70" t="n">
-        <v>23879.4</v>
-      </c>
-      <c r="K70" t="n">
-        <v>5185.9</v>
-      </c>
-      <c r="L70" t="n">
-        <v>67086.88</v>
-      </c>
-      <c r="M70" t="n">
-        <v>25426.4</v>
-      </c>
-      <c r="N70" t="n">
-        <v>59766.19000000002</v>
-      </c>
-      <c r="O70" t="n">
-        <v>2757.549999999999</v>
+        <v>4401.27</v>
       </c>
     </row>
     <row r="71">
@@ -3897,27 +2421,6 @@
       <c r="H71" t="n">
         <v>11493.82</v>
       </c>
-      <c r="I71" t="n">
-        <v>3573.64</v>
-      </c>
-      <c r="J71" t="n">
-        <v>32278.04</v>
-      </c>
-      <c r="K71" t="n">
-        <v>8400.530000000002</v>
-      </c>
-      <c r="L71" t="n">
-        <v>96020.03999999998</v>
-      </c>
-      <c r="M71" t="n">
-        <v>58702.62</v>
-      </c>
-      <c r="N71" t="n">
-        <v>84045.87999999998</v>
-      </c>
-      <c r="O71" t="n">
-        <v>4335</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -3946,124 +2449,61 @@
       <c r="H72" t="n">
         <v>2270.57</v>
       </c>
-      <c r="I72" t="n">
-        <v>1644.39</v>
-      </c>
-      <c r="J72" t="n">
-        <v>15250.17</v>
-      </c>
-      <c r="K72" t="n">
-        <v>4283.39</v>
-      </c>
-      <c r="L72" t="n">
-        <v>47333.17</v>
-      </c>
-      <c r="M72" t="n">
-        <v>19191.86</v>
-      </c>
-      <c r="N72" t="n">
-        <v>41405.4</v>
-      </c>
-      <c r="O72" t="n">
-        <v>2270.57</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3934.9</v>
+        <v>6219.61</v>
       </c>
       <c r="C73" t="n">
-        <v>41441</v>
+        <v>66567.7</v>
       </c>
       <c r="D73" t="n">
-        <v>9972.879999999999</v>
+        <v>15765.15</v>
       </c>
       <c r="E73" t="n">
-        <v>119843.55</v>
+        <v>191283.37</v>
       </c>
       <c r="F73" t="n">
-        <v>44334.74</v>
+        <v>72350.10000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>105935.77</v>
+        <v>169298.61</v>
       </c>
       <c r="H73" t="n">
-        <v>5219.06</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2290.51</v>
-      </c>
-      <c r="J73" t="n">
-        <v>26190.83</v>
-      </c>
-      <c r="K73" t="n">
-        <v>5689.489999999999</v>
-      </c>
-      <c r="L73" t="n">
-        <v>72510.38</v>
-      </c>
-      <c r="M73" t="n">
-        <v>25142.88</v>
-      </c>
-      <c r="N73" t="n">
-        <v>64530.37</v>
-      </c>
-      <c r="O73" t="n">
-        <v>2948.49</v>
+        <v>8061.54</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6219.61</v>
+        <v>3934.9</v>
       </c>
       <c r="C74" t="n">
-        <v>66567.7</v>
+        <v>41441</v>
       </c>
       <c r="D74" t="n">
-        <v>15765.15</v>
+        <v>9972.879999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>191283.37</v>
+        <v>119843.55</v>
       </c>
       <c r="F74" t="n">
-        <v>72350.10000000001</v>
+        <v>44334.74</v>
       </c>
       <c r="G74" t="n">
-        <v>169298.61</v>
+        <v>105935.77</v>
       </c>
       <c r="H74" t="n">
-        <v>8061.54</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2284.71</v>
-      </c>
-      <c r="J74" t="n">
-        <v>25126.7</v>
-      </c>
-      <c r="K74" t="n">
-        <v>5792.27</v>
-      </c>
-      <c r="L74" t="n">
-        <v>71439.81999999999</v>
-      </c>
-      <c r="M74" t="n">
-        <v>28015.36000000001</v>
-      </c>
-      <c r="N74" t="n">
-        <v>63362.83999999998</v>
-      </c>
-      <c r="O74" t="n">
-        <v>2842.48</v>
+        <v>5219.06</v>
       </c>
     </row>
     <row r="75">
@@ -4073,46 +2513,25 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>9395.1</v>
+        <v>9396.389999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>100711.62</v>
+        <v>100712.11</v>
       </c>
       <c r="D75" t="n">
-        <v>24478.82</v>
+        <v>24476.35</v>
       </c>
       <c r="E75" t="n">
-        <v>293079.31</v>
+        <v>293027.42</v>
       </c>
       <c r="F75" t="n">
-        <v>134522.95</v>
+        <v>134523.23</v>
       </c>
       <c r="G75" t="n">
-        <v>259205.39</v>
+        <v>259154.68</v>
       </c>
       <c r="H75" t="n">
-        <v>12411.63</v>
-      </c>
-      <c r="I75" t="n">
-        <v>3175.490000000001</v>
-      </c>
-      <c r="J75" t="n">
-        <v>34143.92</v>
-      </c>
-      <c r="K75" t="n">
-        <v>8713.67</v>
-      </c>
-      <c r="L75" t="n">
-        <v>101795.94</v>
-      </c>
-      <c r="M75" t="n">
-        <v>62172.85000000001</v>
-      </c>
-      <c r="N75" t="n">
-        <v>89906.78000000003</v>
-      </c>
-      <c r="O75" t="n">
-        <v>4350.089999999999</v>
+        <v>12411.62</v>
       </c>
     </row>
   </sheetData>
